--- a/add-in-ids/add-ins-using-exchange-tokens.xlsx
+++ b/add-in-ids/add-ins-using-exchange-tokens.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CA5076-3C67-42FE-BD8F-4296061BE98A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88DD20CF-B37A-46F4-92D3-33ED68CC4748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4230" yWindow="2580" windowWidth="17430" windowHeight="11295" xr2:uid="{8FF931F1-CAD9-4954-9038-88E82260DB46}"/>
+    <workbookView xWindow="0" yWindow="1350" windowWidth="37710" windowHeight="14130" xr2:uid="{8FF931F1-CAD9-4954-9038-88E82260DB46}"/>
   </bookViews>
   <sheets>
     <sheet name="Add-ins list" sheetId="1" r:id="rId1"/>
@@ -7974,7 +7974,7 @@
     <t>Linguisity</t>
   </si>
   <si>
-    <t>ProductId</t>
+    <t>AppId</t>
   </si>
 </sst>
 </file>
@@ -8063,7 +8063,7 @@
   <autoFilter ref="A1:C921" xr:uid="{CD6B8178-56C6-442C-A6BF-7C2D1F869861}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{39B649A1-0CDF-46AA-A276-6F4F89255D96}" name="AssetID"/>
-    <tableColumn id="2" xr3:uid="{C79A1EFF-47FF-488B-A562-E9848648C952}" name="ProductId"/>
+    <tableColumn id="2" xr3:uid="{C79A1EFF-47FF-488B-A562-E9848648C952}" name="AppId"/>
     <tableColumn id="3" xr3:uid="{1A759E60-A53A-451D-8649-39C7863A11D6}" name="Name"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -8390,7 +8390,7 @@
   <dimension ref="A1:C921"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/add-in-ids/add-ins-using-exchange-tokens.xlsx
+++ b/add-in-ids/add-ins-using-exchange-tokens.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88DD20CF-B37A-46F4-92D3-33ED68CC4748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E50CCF7-E62E-4438-B3F7-86827CD0CAD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1350" windowWidth="37710" windowHeight="14130" xr2:uid="{8FF931F1-CAD9-4954-9038-88E82260DB46}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{8FF931F1-CAD9-4954-9038-88E82260DB46}"/>
   </bookViews>
   <sheets>
     <sheet name="Add-ins list" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2759" uniqueCount="2648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2753" uniqueCount="2642">
   <si>
     <t>AssetID</t>
   </si>
@@ -936,15 +936,6 @@
     <t>Office2SharePoint</t>
   </si>
   <si>
-    <t>wa104380690</t>
-  </si>
-  <si>
-    <t>C83ECF7B-2C0F-49FC-942D-926C7EFF6B4D</t>
-  </si>
-  <si>
-    <t>Content Chooser</t>
-  </si>
-  <si>
     <t>wa104380691</t>
   </si>
   <si>
@@ -4813,15 +4804,6 @@
   </si>
   <si>
     <t>Signulu for Outlook</t>
-  </si>
-  <si>
-    <t>wa200003062</t>
-  </si>
-  <si>
-    <t>c5e867f6-e0a6-470f-9721-2d50ed3f02fd</t>
-  </si>
-  <si>
-    <t>Mail Signature</t>
   </si>
   <si>
     <t>wa200003064</t>
@@ -8059,8 +8041,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD6B8178-56C6-442C-A6BF-7C2D1F869861}" name="Table1" displayName="Table1" ref="A1:C921" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:C921" xr:uid="{CD6B8178-56C6-442C-A6BF-7C2D1F869861}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD6B8178-56C6-442C-A6BF-7C2D1F869861}" name="Table1" displayName="Table1" ref="A1:C919" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:C919" xr:uid="{CD6B8178-56C6-442C-A6BF-7C2D1F869861}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{39B649A1-0CDF-46AA-A276-6F4F89255D96}" name="AssetID"/>
     <tableColumn id="2" xr3:uid="{C79A1EFF-47FF-488B-A562-E9848648C952}" name="AppId"/>
@@ -8387,10 +8369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3293B4AA-89CE-4E6A-9112-DA5B905DDA88}">
-  <dimension ref="A1:C921"/>
+  <dimension ref="A1:C919"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8406,7 +8388,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2647</v>
+        <v>2641</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -9526,7 +9508,7 @@
       <c r="A104" t="s">
         <v>304</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="1" t="s">
         <v>305</v>
       </c>
       <c r="C104" t="s">
@@ -9537,7 +9519,7 @@
       <c r="A105" t="s">
         <v>307</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B105" t="s">
         <v>308</v>
       </c>
       <c r="C105" t="s">
@@ -10208,7 +10190,7 @@
       <c r="A166" t="s">
         <v>490</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B166" s="1" t="s">
         <v>491</v>
       </c>
       <c r="C166" t="s">
@@ -10219,7 +10201,7 @@
       <c r="A167" t="s">
         <v>493</v>
       </c>
-      <c r="B167" s="1" t="s">
+      <c r="B167" t="s">
         <v>494</v>
       </c>
       <c r="C167" t="s">
@@ -10267,18 +10249,18 @@
         <v>506</v>
       </c>
       <c r="C171" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
+        <v>507</v>
+      </c>
+      <c r="B172" t="s">
         <v>508</v>
       </c>
-      <c r="B172" t="s">
+      <c r="C172" t="s">
         <v>509</v>
-      </c>
-      <c r="C172" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -10913,18 +10895,18 @@
         <v>681</v>
       </c>
       <c r="B230" t="s">
+        <v>458</v>
+      </c>
+      <c r="C230" t="s">
         <v>682</v>
-      </c>
-      <c r="C230" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
+        <v>683</v>
+      </c>
+      <c r="B231" t="s">
         <v>684</v>
-      </c>
-      <c r="B231" t="s">
-        <v>461</v>
       </c>
       <c r="C231" t="s">
         <v>685</v>
@@ -11518,15 +11500,15 @@
         <v>845</v>
       </c>
       <c r="B285" t="s">
-        <v>846</v>
+        <v>290</v>
       </c>
       <c r="C285" t="s">
-        <v>847</v>
+        <v>291</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B286" t="s">
         <v>290</v>
@@ -11537,7 +11519,7 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B287" t="s">
         <v>290</v>
@@ -11548,7 +11530,7 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B288" t="s">
         <v>290</v>
@@ -11559,7 +11541,7 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B289" t="s">
         <v>290</v>
@@ -11570,7 +11552,7 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B290" t="s">
         <v>290</v>
@@ -11581,13 +11563,13 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
+        <v>851</v>
+      </c>
+      <c r="B291" t="s">
+        <v>852</v>
+      </c>
+      <c r="C291" t="s">
         <v>853</v>
-      </c>
-      <c r="B291" t="s">
-        <v>290</v>
-      </c>
-      <c r="C291" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
@@ -11606,15 +11588,15 @@
         <v>857</v>
       </c>
       <c r="B293" t="s">
-        <v>858</v>
+        <v>290</v>
       </c>
       <c r="C293" t="s">
-        <v>859</v>
+        <v>291</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B294" t="s">
         <v>290</v>
@@ -11625,7 +11607,7 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B295" t="s">
         <v>290</v>
@@ -11636,7 +11618,7 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B296" t="s">
         <v>290</v>
@@ -11647,13 +11629,13 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
+        <v>861</v>
+      </c>
+      <c r="B297" t="s">
+        <v>862</v>
+      </c>
+      <c r="C297" t="s">
         <v>863</v>
-      </c>
-      <c r="B297" t="s">
-        <v>290</v>
-      </c>
-      <c r="C297" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
@@ -11672,21 +11654,21 @@
         <v>867</v>
       </c>
       <c r="B299" t="s">
-        <v>868</v>
+        <v>290</v>
       </c>
       <c r="C299" t="s">
-        <v>869</v>
+        <v>291</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
+        <v>868</v>
+      </c>
+      <c r="B300" t="s">
+        <v>869</v>
+      </c>
+      <c r="C300" t="s">
         <v>870</v>
-      </c>
-      <c r="B300" t="s">
-        <v>290</v>
-      </c>
-      <c r="C300" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
@@ -11694,15 +11676,15 @@
         <v>871</v>
       </c>
       <c r="B301" t="s">
-        <v>872</v>
+        <v>290</v>
       </c>
       <c r="C301" t="s">
-        <v>873</v>
+        <v>291</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B302" t="s">
         <v>290</v>
@@ -11713,13 +11695,13 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
+        <v>873</v>
+      </c>
+      <c r="B303" t="s">
+        <v>874</v>
+      </c>
+      <c r="C303" t="s">
         <v>875</v>
-      </c>
-      <c r="B303" t="s">
-        <v>290</v>
-      </c>
-      <c r="C303" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
@@ -11782,21 +11764,21 @@
         <v>891</v>
       </c>
       <c r="B309" t="s">
-        <v>892</v>
+        <v>290</v>
       </c>
       <c r="C309" t="s">
-        <v>893</v>
+        <v>291</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
+        <v>892</v>
+      </c>
+      <c r="B310" t="s">
+        <v>893</v>
+      </c>
+      <c r="C310" t="s">
         <v>894</v>
-      </c>
-      <c r="B310" t="s">
-        <v>290</v>
-      </c>
-      <c r="C310" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
@@ -11804,15 +11786,15 @@
         <v>895</v>
       </c>
       <c r="B311" t="s">
-        <v>896</v>
+        <v>290</v>
       </c>
       <c r="C311" t="s">
-        <v>897</v>
+        <v>291</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B312" t="s">
         <v>290</v>
@@ -11823,7 +11805,7 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="B313" t="s">
         <v>290</v>
@@ -11834,7 +11816,7 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B314" t="s">
         <v>290</v>
@@ -11845,7 +11827,7 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="B315" t="s">
         <v>290</v>
@@ -11856,7 +11838,7 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B316" t="s">
         <v>290</v>
@@ -11867,7 +11849,7 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B317" t="s">
         <v>290</v>
@@ -11878,7 +11860,7 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B318" t="s">
         <v>290</v>
@@ -11889,7 +11871,7 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B319" t="s">
         <v>290</v>
@@ -11900,7 +11882,7 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B320" t="s">
         <v>290</v>
@@ -11911,7 +11893,7 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B321" t="s">
         <v>290</v>
@@ -11922,7 +11904,7 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="B322" t="s">
         <v>290</v>
@@ -11933,7 +11915,7 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B323" t="s">
         <v>290</v>
@@ -11944,7 +11926,7 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B324" t="s">
         <v>290</v>
@@ -11955,7 +11937,7 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="B325" t="s">
         <v>290</v>
@@ -11966,7 +11948,7 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="B326" t="s">
         <v>290</v>
@@ -11977,7 +11959,7 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="B327" t="s">
         <v>290</v>
@@ -11988,7 +11970,7 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="B328" t="s">
         <v>290</v>
@@ -11999,7 +11981,7 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B329" t="s">
         <v>290</v>
@@ -12010,7 +11992,7 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="B330" t="s">
         <v>290</v>
@@ -12021,7 +12003,7 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B331" t="s">
         <v>290</v>
@@ -12032,7 +12014,7 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="B332" t="s">
         <v>290</v>
@@ -12043,13 +12025,13 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
+        <v>917</v>
+      </c>
+      <c r="B333" t="s">
+        <v>918</v>
+      </c>
+      <c r="C333" t="s">
         <v>919</v>
-      </c>
-      <c r="B333" t="s">
-        <v>290</v>
-      </c>
-      <c r="C333" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
@@ -12057,15 +12039,15 @@
         <v>920</v>
       </c>
       <c r="B334" t="s">
-        <v>921</v>
+        <v>290</v>
       </c>
       <c r="C334" t="s">
-        <v>922</v>
+        <v>291</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B335" t="s">
         <v>290</v>
@@ -12076,7 +12058,7 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="B336" t="s">
         <v>290</v>
@@ -12087,7 +12069,7 @@
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B337" t="s">
         <v>290</v>
@@ -12098,7 +12080,7 @@
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="B338" t="s">
         <v>290</v>
@@ -12109,13 +12091,13 @@
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
+        <v>925</v>
+      </c>
+      <c r="B339" t="s">
+        <v>926</v>
+      </c>
+      <c r="C339" t="s">
         <v>927</v>
-      </c>
-      <c r="B339" t="s">
-        <v>290</v>
-      </c>
-      <c r="C339" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
@@ -12123,15 +12105,15 @@
         <v>928</v>
       </c>
       <c r="B340" t="s">
-        <v>929</v>
+        <v>290</v>
       </c>
       <c r="C340" t="s">
-        <v>930</v>
+        <v>291</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B341" t="s">
         <v>290</v>
@@ -12142,13 +12124,13 @@
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
+        <v>930</v>
+      </c>
+      <c r="B342" t="s">
+        <v>931</v>
+      </c>
+      <c r="C342" t="s">
         <v>932</v>
-      </c>
-      <c r="B342" t="s">
-        <v>290</v>
-      </c>
-      <c r="C342" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
@@ -12181,18 +12163,18 @@
         <v>940</v>
       </c>
       <c r="C345" t="s">
-        <v>941</v>
+        <v>291</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
+        <v>941</v>
+      </c>
+      <c r="B346" t="s">
         <v>942</v>
       </c>
-      <c r="B346" t="s">
+      <c r="C346" t="s">
         <v>943</v>
-      </c>
-      <c r="C346" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
@@ -12412,18 +12394,18 @@
         <v>1002</v>
       </c>
       <c r="C366" t="s">
-        <v>1003</v>
+        <v>291</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B367" t="s">
         <v>1004</v>
       </c>
-      <c r="B367" t="s">
+      <c r="C367" t="s">
         <v>1005</v>
-      </c>
-      <c r="C367" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
@@ -12431,21 +12413,21 @@
         <v>1006</v>
       </c>
       <c r="B368" t="s">
-        <v>1007</v>
+        <v>38</v>
       </c>
       <c r="C368" t="s">
-        <v>1008</v>
+        <v>39</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B369" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C369" t="s">
         <v>1009</v>
-      </c>
-      <c r="B369" t="s">
-        <v>38</v>
-      </c>
-      <c r="C369" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
@@ -12453,21 +12435,21 @@
         <v>1010</v>
       </c>
       <c r="B370" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="C370" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B371" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C371" t="s">
         <v>1013</v>
-      </c>
-      <c r="B371" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C371" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
@@ -12761,29 +12743,29 @@
         <v>1092</v>
       </c>
       <c r="B398" t="s">
-        <v>1093</v>
+        <v>1002</v>
       </c>
       <c r="C398" t="s">
-        <v>1094</v>
+        <v>291</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="B399" t="s">
-        <v>1005</v>
+        <v>206</v>
       </c>
       <c r="C399" t="s">
-        <v>291</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B400" t="s">
         <v>1096</v>
-      </c>
-      <c r="B400" t="s">
-        <v>206</v>
       </c>
       <c r="C400" t="s">
         <v>1097</v>
@@ -13003,18 +12985,18 @@
         <v>1155</v>
       </c>
       <c r="B420" t="s">
+        <v>646</v>
+      </c>
+      <c r="C420" t="s">
         <v>1156</v>
-      </c>
-      <c r="C420" t="s">
-        <v>1157</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B421" t="s">
         <v>1158</v>
-      </c>
-      <c r="B421" t="s">
-        <v>649</v>
       </c>
       <c r="C421" t="s">
         <v>1159</v>
@@ -13101,7 +13083,7 @@
       <c r="A429" t="s">
         <v>1181</v>
       </c>
-      <c r="B429" t="s">
+      <c r="B429" s="1" t="s">
         <v>1182</v>
       </c>
       <c r="C429" t="s">
@@ -13112,7 +13094,7 @@
       <c r="A430" t="s">
         <v>1184</v>
       </c>
-      <c r="B430" s="1" t="s">
+      <c r="B430" t="s">
         <v>1185</v>
       </c>
       <c r="C430" t="s">
@@ -13233,7 +13215,7 @@
       <c r="A441" t="s">
         <v>1217</v>
       </c>
-      <c r="B441" t="s">
+      <c r="B441" s="1" t="s">
         <v>1218</v>
       </c>
       <c r="C441" t="s">
@@ -13244,7 +13226,7 @@
       <c r="A442" t="s">
         <v>1220</v>
       </c>
-      <c r="B442" s="1" t="s">
+      <c r="B442" t="s">
         <v>1221</v>
       </c>
       <c r="C442" t="s">
@@ -13321,7 +13303,7 @@
       <c r="A449" t="s">
         <v>1241</v>
       </c>
-      <c r="B449" t="s">
+      <c r="B449" s="1" t="s">
         <v>1242</v>
       </c>
       <c r="C449" t="s">
@@ -13332,7 +13314,7 @@
       <c r="A450" t="s">
         <v>1244</v>
       </c>
-      <c r="B450" s="1" t="s">
+      <c r="B450" t="s">
         <v>1245</v>
       </c>
       <c r="C450" t="s">
@@ -13541,7 +13523,7 @@
       <c r="A469" t="s">
         <v>1301</v>
       </c>
-      <c r="B469" t="s">
+      <c r="B469" s="1" t="s">
         <v>1302</v>
       </c>
       <c r="C469" t="s">
@@ -13552,7 +13534,7 @@
       <c r="A470" t="s">
         <v>1304</v>
       </c>
-      <c r="B470" s="1" t="s">
+      <c r="B470" t="s">
         <v>1305</v>
       </c>
       <c r="C470" t="s">
@@ -13684,7 +13666,7 @@
       <c r="A482" t="s">
         <v>1340</v>
       </c>
-      <c r="B482" t="s">
+      <c r="B482" s="1" t="s">
         <v>1341</v>
       </c>
       <c r="C482" t="s">
@@ -13695,7 +13677,7 @@
       <c r="A483" t="s">
         <v>1343</v>
       </c>
-      <c r="B483" s="1" t="s">
+      <c r="B483" t="s">
         <v>1344</v>
       </c>
       <c r="C483" t="s">
@@ -13773,21 +13755,21 @@
         <v>1364</v>
       </c>
       <c r="B490" t="s">
-        <v>1365</v>
+        <v>1002</v>
       </c>
       <c r="C490" t="s">
-        <v>1366</v>
+        <v>291</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B491" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C491" t="s">
         <v>1367</v>
-      </c>
-      <c r="B491" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C491" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.25">
@@ -14370,18 +14352,18 @@
         <v>1525</v>
       </c>
       <c r="C544" t="s">
-        <v>1526</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B545" t="s">
         <v>1527</v>
       </c>
-      <c r="B545" t="s">
+      <c r="C545" t="s">
         <v>1528</v>
-      </c>
-      <c r="C545" t="s">
-        <v>1324</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.25">
@@ -14389,18 +14371,18 @@
         <v>1529</v>
       </c>
       <c r="B546" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C546" t="s">
         <v>1530</v>
-      </c>
-      <c r="C546" t="s">
-        <v>1531</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B547" t="s">
         <v>1532</v>
-      </c>
-      <c r="B547" t="s">
-        <v>1516</v>
       </c>
       <c r="C547" t="s">
         <v>1533</v>
@@ -14840,29 +14822,29 @@
         <v>1651</v>
       </c>
       <c r="B587" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C587" t="s">
         <v>1652</v>
-      </c>
-      <c r="C587" t="s">
-        <v>1653</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B588" t="s">
         <v>1654</v>
       </c>
-      <c r="B588" t="s">
+      <c r="C588" t="s">
         <v>1655</v>
-      </c>
-      <c r="C588" t="s">
-        <v>1656</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B589" t="s">
         <v>1657</v>
-      </c>
-      <c r="B589" t="s">
-        <v>1516</v>
       </c>
       <c r="C589" t="s">
         <v>1658</v>
@@ -15316,29 +15298,29 @@
         <v>1780</v>
       </c>
       <c r="C630" t="s">
-        <v>1781</v>
+        <v>626</v>
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
+        <v>1781</v>
+      </c>
+      <c r="B631" t="s">
         <v>1782</v>
       </c>
-      <c r="B631" t="s">
+      <c r="C631" t="s">
         <v>1783</v>
-      </c>
-      <c r="C631" t="s">
-        <v>1784</v>
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B632" t="s">
         <v>1785</v>
       </c>
-      <c r="B632" t="s">
+      <c r="C632" t="s">
         <v>1786</v>
-      </c>
-      <c r="C632" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.25">
@@ -15734,29 +15716,29 @@
         <v>1893</v>
       </c>
       <c r="C668" t="s">
-        <v>1894</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
+        <v>1894</v>
+      </c>
+      <c r="B669" t="s">
         <v>1895</v>
       </c>
-      <c r="B669" t="s">
+      <c r="C669" t="s">
         <v>1896</v>
-      </c>
-      <c r="C669" t="s">
-        <v>1897</v>
       </c>
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B670" t="s">
         <v>1898</v>
       </c>
-      <c r="B670" t="s">
+      <c r="C670" t="s">
         <v>1899</v>
-      </c>
-      <c r="C670" t="s">
-        <v>1207</v>
       </c>
     </row>
     <row r="671" spans="1:3" x14ac:dyDescent="0.25">
@@ -15954,29 +15936,29 @@
         <v>1952</v>
       </c>
       <c r="C688" t="s">
-        <v>1953</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
+        <v>1953</v>
+      </c>
+      <c r="B689" t="s">
         <v>1954</v>
       </c>
-      <c r="B689" t="s">
+      <c r="C689" t="s">
         <v>1955</v>
-      </c>
-      <c r="C689" t="s">
-        <v>1956</v>
       </c>
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
+        <v>1956</v>
+      </c>
+      <c r="B690" t="s">
         <v>1957</v>
       </c>
-      <c r="B690" t="s">
+      <c r="C690" t="s">
         <v>1958</v>
-      </c>
-      <c r="C690" t="s">
-        <v>1409</v>
       </c>
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.25">
@@ -16746,29 +16728,29 @@
         <v>2167</v>
       </c>
       <c r="C760" t="s">
-        <v>2168</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="761" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
+        <v>2168</v>
+      </c>
+      <c r="B761" t="s">
         <v>2169</v>
       </c>
-      <c r="B761" t="s">
+      <c r="C761" t="s">
         <v>2170</v>
-      </c>
-      <c r="C761" t="s">
-        <v>2171</v>
       </c>
     </row>
     <row r="762" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
+        <v>2171</v>
+      </c>
+      <c r="B762" t="s">
         <v>2172</v>
       </c>
-      <c r="B762" t="s">
+      <c r="C762" t="s">
         <v>2173</v>
-      </c>
-      <c r="C762" t="s">
-        <v>1357</v>
       </c>
     </row>
     <row r="763" spans="1:3" x14ac:dyDescent="0.25">
@@ -16834,29 +16816,29 @@
         <v>2190</v>
       </c>
       <c r="C768" t="s">
-        <v>2191</v>
+        <v>303</v>
       </c>
     </row>
     <row r="769" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
+        <v>2191</v>
+      </c>
+      <c r="B769" t="s">
         <v>2192</v>
       </c>
-      <c r="B769" t="s">
+      <c r="C769" t="s">
         <v>2193</v>
-      </c>
-      <c r="C769" t="s">
-        <v>2194</v>
       </c>
     </row>
     <row r="770" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
+        <v>2194</v>
+      </c>
+      <c r="B770" t="s">
         <v>2195</v>
       </c>
-      <c r="B770" t="s">
+      <c r="C770" t="s">
         <v>2196</v>
-      </c>
-      <c r="C770" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="771" spans="1:3" x14ac:dyDescent="0.25">
@@ -16867,29 +16849,29 @@
         <v>2198</v>
       </c>
       <c r="C771" t="s">
-        <v>2199</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="772" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
+        <v>2199</v>
+      </c>
+      <c r="B772" t="s">
         <v>2200</v>
       </c>
-      <c r="B772" t="s">
+      <c r="C772" t="s">
         <v>2201</v>
-      </c>
-      <c r="C772" t="s">
-        <v>2202</v>
       </c>
     </row>
     <row r="773" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
+        <v>2202</v>
+      </c>
+      <c r="B773" t="s">
         <v>2203</v>
       </c>
-      <c r="B773" t="s">
+      <c r="C773" t="s">
         <v>2204</v>
-      </c>
-      <c r="C773" t="s">
-        <v>1542</v>
       </c>
     </row>
     <row r="774" spans="1:3" x14ac:dyDescent="0.25">
@@ -16999,29 +16981,29 @@
         <v>2233</v>
       </c>
       <c r="C783" t="s">
-        <v>2234</v>
+        <v>509</v>
       </c>
     </row>
     <row r="784" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
+        <v>2234</v>
+      </c>
+      <c r="B784" t="s">
         <v>2235</v>
       </c>
-      <c r="B784" t="s">
+      <c r="C784" t="s">
         <v>2236</v>
-      </c>
-      <c r="C784" t="s">
-        <v>2237</v>
       </c>
     </row>
     <row r="785" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
+        <v>2237</v>
+      </c>
+      <c r="B785" t="s">
         <v>2238</v>
       </c>
-      <c r="B785" t="s">
+      <c r="C785" t="s">
         <v>2239</v>
-      </c>
-      <c r="C785" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="786" spans="1:3" x14ac:dyDescent="0.25">
@@ -17901,29 +17883,29 @@
         <v>2478</v>
       </c>
       <c r="C865" t="s">
-        <v>2479</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="866" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A866" t="s">
+        <v>2479</v>
+      </c>
+      <c r="B866" t="s">
         <v>2480</v>
       </c>
-      <c r="B866" t="s">
+      <c r="C866" t="s">
         <v>2481</v>
-      </c>
-      <c r="C866" t="s">
-        <v>2482</v>
       </c>
     </row>
     <row r="867" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A867" t="s">
+        <v>2482</v>
+      </c>
+      <c r="B867" t="s">
         <v>2483</v>
       </c>
-      <c r="B867" t="s">
+      <c r="C867" t="s">
         <v>2484</v>
-      </c>
-      <c r="C867" t="s">
-        <v>2467</v>
       </c>
     </row>
     <row r="868" spans="1:3" x14ac:dyDescent="0.25">
@@ -18496,28 +18478,6 @@
       </c>
       <c r="C919" t="s">
         <v>2640</v>
-      </c>
-    </row>
-    <row r="920" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A920" t="s">
-        <v>2641</v>
-      </c>
-      <c r="B920" t="s">
-        <v>2642</v>
-      </c>
-      <c r="C920" t="s">
-        <v>2643</v>
-      </c>
-    </row>
-    <row r="921" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A921" t="s">
-        <v>2644</v>
-      </c>
-      <c r="B921" t="s">
-        <v>2645</v>
-      </c>
-      <c r="C921" t="s">
-        <v>2646</v>
       </c>
     </row>
   </sheetData>

--- a/add-in-ids/add-ins-using-exchange-tokens.xlsx
+++ b/add-in-ids/add-ins-using-exchange-tokens.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E50CCF7-E62E-4438-B3F7-86827CD0CAD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512B215A-1239-4BC2-80F9-2B8FBC3C8C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{8FF931F1-CAD9-4954-9038-88E82260DB46}"/>
+    <workbookView xWindow="0" yWindow="1230" windowWidth="37710" windowHeight="14130" xr2:uid="{8FF931F1-CAD9-4954-9038-88E82260DB46}"/>
   </bookViews>
   <sheets>
     <sheet name="Add-ins list" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2753" uniqueCount="2642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2750" uniqueCount="2639">
   <si>
     <t>AssetID</t>
   </si>
@@ -421,15 +421,6 @@
   </si>
   <si>
     <t>Legal Tracker</t>
-  </si>
-  <si>
-    <t>wa104379803</t>
-  </si>
-  <si>
-    <t>9758a0e2-7861-440f-b467-1823144e5b65</t>
-  </si>
-  <si>
-    <t>FindTime</t>
   </si>
   <si>
     <t>wa104379818</t>
@@ -8041,8 +8032,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD6B8178-56C6-442C-A6BF-7C2D1F869861}" name="Table1" displayName="Table1" ref="A1:C919" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:C919" xr:uid="{CD6B8178-56C6-442C-A6BF-7C2D1F869861}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD6B8178-56C6-442C-A6BF-7C2D1F869861}" name="Table1" displayName="Table1" ref="A1:C918" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:C918" xr:uid="{CD6B8178-56C6-442C-A6BF-7C2D1F869861}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{39B649A1-0CDF-46AA-A276-6F4F89255D96}" name="AssetID"/>
     <tableColumn id="2" xr3:uid="{C79A1EFF-47FF-488B-A562-E9848648C952}" name="AppId"/>
@@ -8369,10 +8360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3293B4AA-89CE-4E6A-9112-DA5B905DDA88}">
-  <dimension ref="A1:C919"/>
+  <dimension ref="A1:C918"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="B96" sqref="B96"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8388,7 +8379,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2641</v>
+        <v>2638</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -8870,7 +8861,7 @@
       <c r="A46" t="s">
         <v>130</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C46" t="s">
@@ -8881,7 +8872,7 @@
       <c r="A47" t="s">
         <v>133</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" t="s">
         <v>134</v>
       </c>
       <c r="C47" t="s">
@@ -9068,7 +9059,7 @@
       <c r="A64" t="s">
         <v>184</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="1" t="s">
         <v>185</v>
       </c>
       <c r="C64" t="s">
@@ -9079,7 +9070,7 @@
       <c r="A65" t="s">
         <v>187</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" t="s">
         <v>188</v>
       </c>
       <c r="C65" t="s">
@@ -9288,7 +9279,7 @@
       <c r="A84" t="s">
         <v>244</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="1" t="s">
         <v>245</v>
       </c>
       <c r="C84" t="s">
@@ -9299,7 +9290,7 @@
       <c r="A85" t="s">
         <v>247</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" t="s">
         <v>248</v>
       </c>
       <c r="C85" t="s">
@@ -9497,7 +9488,7 @@
       <c r="A103" t="s">
         <v>301</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="1" t="s">
         <v>302</v>
       </c>
       <c r="C103" t="s">
@@ -9508,7 +9499,7 @@
       <c r="A104" t="s">
         <v>304</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B104" t="s">
         <v>305</v>
       </c>
       <c r="C104" t="s">
@@ -10179,7 +10170,7 @@
       <c r="A165" t="s">
         <v>487</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B165" s="1" t="s">
         <v>488</v>
       </c>
       <c r="C165" t="s">
@@ -10190,7 +10181,7 @@
       <c r="A166" t="s">
         <v>490</v>
       </c>
-      <c r="B166" s="1" t="s">
+      <c r="B166" t="s">
         <v>491</v>
       </c>
       <c r="C166" t="s">
@@ -10238,18 +10229,18 @@
         <v>503</v>
       </c>
       <c r="C170" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
+        <v>504</v>
+      </c>
+      <c r="B171" t="s">
         <v>505</v>
       </c>
-      <c r="B171" t="s">
+      <c r="C171" t="s">
         <v>506</v>
-      </c>
-      <c r="C171" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -10884,18 +10875,18 @@
         <v>678</v>
       </c>
       <c r="B229" t="s">
+        <v>455</v>
+      </c>
+      <c r="C229" t="s">
         <v>679</v>
-      </c>
-      <c r="C229" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
+        <v>680</v>
+      </c>
+      <c r="B230" t="s">
         <v>681</v>
-      </c>
-      <c r="B230" t="s">
-        <v>458</v>
       </c>
       <c r="C230" t="s">
         <v>682</v>
@@ -11489,76 +11480,76 @@
         <v>842</v>
       </c>
       <c r="B284" t="s">
-        <v>843</v>
+        <v>287</v>
       </c>
       <c r="C284" t="s">
-        <v>844</v>
+        <v>288</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B285" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C285" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B286" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C286" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B287" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C287" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B288" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C288" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B289" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C289" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
+        <v>848</v>
+      </c>
+      <c r="B290" t="s">
+        <v>849</v>
+      </c>
+      <c r="C290" t="s">
         <v>850</v>
-      </c>
-      <c r="B290" t="s">
-        <v>290</v>
-      </c>
-      <c r="C290" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
@@ -11577,54 +11568,54 @@
         <v>854</v>
       </c>
       <c r="B292" t="s">
-        <v>855</v>
+        <v>287</v>
       </c>
       <c r="C292" t="s">
-        <v>856</v>
+        <v>288</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B293" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C293" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B294" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C294" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B295" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C295" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
+        <v>858</v>
+      </c>
+      <c r="B296" t="s">
+        <v>859</v>
+      </c>
+      <c r="C296" t="s">
         <v>860</v>
-      </c>
-      <c r="B296" t="s">
-        <v>290</v>
-      </c>
-      <c r="C296" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
@@ -11643,21 +11634,21 @@
         <v>864</v>
       </c>
       <c r="B298" t="s">
-        <v>865</v>
+        <v>287</v>
       </c>
       <c r="C298" t="s">
-        <v>866</v>
+        <v>288</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
+        <v>865</v>
+      </c>
+      <c r="B299" t="s">
+        <v>866</v>
+      </c>
+      <c r="C299" t="s">
         <v>867</v>
-      </c>
-      <c r="B299" t="s">
-        <v>290</v>
-      </c>
-      <c r="C299" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
@@ -11665,32 +11656,32 @@
         <v>868</v>
       </c>
       <c r="B300" t="s">
-        <v>869</v>
+        <v>287</v>
       </c>
       <c r="C300" t="s">
-        <v>870</v>
+        <v>288</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B301" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C301" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
+        <v>870</v>
+      </c>
+      <c r="B302" t="s">
+        <v>871</v>
+      </c>
+      <c r="C302" t="s">
         <v>872</v>
-      </c>
-      <c r="B302" t="s">
-        <v>290</v>
-      </c>
-      <c r="C302" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
@@ -11753,21 +11744,21 @@
         <v>888</v>
       </c>
       <c r="B308" t="s">
-        <v>889</v>
+        <v>287</v>
       </c>
       <c r="C308" t="s">
-        <v>890</v>
+        <v>288</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
+        <v>889</v>
+      </c>
+      <c r="B309" t="s">
+        <v>890</v>
+      </c>
+      <c r="C309" t="s">
         <v>891</v>
-      </c>
-      <c r="B309" t="s">
-        <v>290</v>
-      </c>
-      <c r="C309" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
@@ -11775,252 +11766,252 @@
         <v>892</v>
       </c>
       <c r="B310" t="s">
-        <v>893</v>
+        <v>287</v>
       </c>
       <c r="C310" t="s">
-        <v>894</v>
+        <v>288</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B311" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C311" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B312" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C312" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B313" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C313" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B314" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C314" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="B315" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C315" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B316" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C316" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="B317" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C317" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B318" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C318" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B319" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C319" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B320" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C320" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B321" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C321" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B322" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C322" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B323" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C323" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="B324" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C324" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B325" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C325" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B326" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C326" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="B327" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C327" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="B328" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C328" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="B329" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C329" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="B330" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C330" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B331" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C331" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
+        <v>914</v>
+      </c>
+      <c r="B332" t="s">
+        <v>915</v>
+      </c>
+      <c r="C332" t="s">
         <v>916</v>
-      </c>
-      <c r="B332" t="s">
-        <v>290</v>
-      </c>
-      <c r="C332" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
@@ -12028,65 +12019,65 @@
         <v>917</v>
       </c>
       <c r="B333" t="s">
-        <v>918</v>
+        <v>287</v>
       </c>
       <c r="C333" t="s">
-        <v>919</v>
+        <v>288</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="B334" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C334" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="B335" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C335" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="B336" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C336" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B337" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C337" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
+        <v>922</v>
+      </c>
+      <c r="B338" t="s">
+        <v>923</v>
+      </c>
+      <c r="C338" t="s">
         <v>924</v>
-      </c>
-      <c r="B338" t="s">
-        <v>290</v>
-      </c>
-      <c r="C338" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
@@ -12094,32 +12085,32 @@
         <v>925</v>
       </c>
       <c r="B339" t="s">
-        <v>926</v>
+        <v>287</v>
       </c>
       <c r="C339" t="s">
-        <v>927</v>
+        <v>288</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="B340" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C340" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
+        <v>927</v>
+      </c>
+      <c r="B341" t="s">
+        <v>928</v>
+      </c>
+      <c r="C341" t="s">
         <v>929</v>
-      </c>
-      <c r="B341" t="s">
-        <v>290</v>
-      </c>
-      <c r="C341" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
@@ -12152,18 +12143,18 @@
         <v>937</v>
       </c>
       <c r="C344" t="s">
-        <v>938</v>
+        <v>288</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
+        <v>938</v>
+      </c>
+      <c r="B345" t="s">
         <v>939</v>
       </c>
-      <c r="B345" t="s">
+      <c r="C345" t="s">
         <v>940</v>
-      </c>
-      <c r="C345" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
@@ -12383,18 +12374,18 @@
         <v>999</v>
       </c>
       <c r="C365" t="s">
-        <v>1000</v>
+        <v>288</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B366" t="s">
         <v>1001</v>
       </c>
-      <c r="B366" t="s">
+      <c r="C366" t="s">
         <v>1002</v>
-      </c>
-      <c r="C366" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
@@ -12402,21 +12393,21 @@
         <v>1003</v>
       </c>
       <c r="B367" t="s">
-        <v>1004</v>
+        <v>38</v>
       </c>
       <c r="C367" t="s">
-        <v>1005</v>
+        <v>39</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B368" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C368" t="s">
         <v>1006</v>
-      </c>
-      <c r="B368" t="s">
-        <v>38</v>
-      </c>
-      <c r="C368" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
@@ -12424,21 +12415,21 @@
         <v>1007</v>
       </c>
       <c r="B369" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="C369" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B370" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C370" t="s">
         <v>1010</v>
-      </c>
-      <c r="B370" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C370" t="s">
-        <v>1009</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
@@ -12732,29 +12723,29 @@
         <v>1089</v>
       </c>
       <c r="B397" t="s">
-        <v>1090</v>
+        <v>999</v>
       </c>
       <c r="C397" t="s">
-        <v>1091</v>
+        <v>288</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B398" t="s">
-        <v>1002</v>
+        <v>203</v>
       </c>
       <c r="C398" t="s">
-        <v>291</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B399" t="s">
         <v>1093</v>
-      </c>
-      <c r="B399" t="s">
-        <v>206</v>
       </c>
       <c r="C399" t="s">
         <v>1094</v>
@@ -12974,18 +12965,18 @@
         <v>1152</v>
       </c>
       <c r="B419" t="s">
+        <v>643</v>
+      </c>
+      <c r="C419" t="s">
         <v>1153</v>
-      </c>
-      <c r="C419" t="s">
-        <v>1154</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B420" t="s">
         <v>1155</v>
-      </c>
-      <c r="B420" t="s">
-        <v>646</v>
       </c>
       <c r="C420" t="s">
         <v>1156</v>
@@ -13072,7 +13063,7 @@
       <c r="A428" t="s">
         <v>1178</v>
       </c>
-      <c r="B428" t="s">
+      <c r="B428" s="1" t="s">
         <v>1179</v>
       </c>
       <c r="C428" t="s">
@@ -13083,7 +13074,7 @@
       <c r="A429" t="s">
         <v>1181</v>
       </c>
-      <c r="B429" s="1" t="s">
+      <c r="B429" t="s">
         <v>1182</v>
       </c>
       <c r="C429" t="s">
@@ -13204,7 +13195,7 @@
       <c r="A440" t="s">
         <v>1214</v>
       </c>
-      <c r="B440" t="s">
+      <c r="B440" s="1" t="s">
         <v>1215</v>
       </c>
       <c r="C440" t="s">
@@ -13215,7 +13206,7 @@
       <c r="A441" t="s">
         <v>1217</v>
       </c>
-      <c r="B441" s="1" t="s">
+      <c r="B441" t="s">
         <v>1218</v>
       </c>
       <c r="C441" t="s">
@@ -13292,7 +13283,7 @@
       <c r="A448" t="s">
         <v>1238</v>
       </c>
-      <c r="B448" t="s">
+      <c r="B448" s="1" t="s">
         <v>1239</v>
       </c>
       <c r="C448" t="s">
@@ -13303,7 +13294,7 @@
       <c r="A449" t="s">
         <v>1241</v>
       </c>
-      <c r="B449" s="1" t="s">
+      <c r="B449" t="s">
         <v>1242</v>
       </c>
       <c r="C449" t="s">
@@ -13512,7 +13503,7 @@
       <c r="A468" t="s">
         <v>1298</v>
       </c>
-      <c r="B468" t="s">
+      <c r="B468" s="1" t="s">
         <v>1299</v>
       </c>
       <c r="C468" t="s">
@@ -13523,7 +13514,7 @@
       <c r="A469" t="s">
         <v>1301</v>
       </c>
-      <c r="B469" s="1" t="s">
+      <c r="B469" t="s">
         <v>1302</v>
       </c>
       <c r="C469" t="s">
@@ -13655,7 +13646,7 @@
       <c r="A481" t="s">
         <v>1337</v>
       </c>
-      <c r="B481" t="s">
+      <c r="B481" s="1" t="s">
         <v>1338</v>
       </c>
       <c r="C481" t="s">
@@ -13666,7 +13657,7 @@
       <c r="A482" t="s">
         <v>1340</v>
       </c>
-      <c r="B482" s="1" t="s">
+      <c r="B482" t="s">
         <v>1341</v>
       </c>
       <c r="C482" t="s">
@@ -13744,21 +13735,21 @@
         <v>1361</v>
       </c>
       <c r="B489" t="s">
-        <v>1362</v>
+        <v>999</v>
       </c>
       <c r="C489" t="s">
-        <v>1363</v>
+        <v>288</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B490" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C490" t="s">
         <v>1364</v>
-      </c>
-      <c r="B490" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C490" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.25">
@@ -14341,18 +14332,18 @@
         <v>1522</v>
       </c>
       <c r="C543" t="s">
-        <v>1523</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B544" t="s">
         <v>1524</v>
       </c>
-      <c r="B544" t="s">
+      <c r="C544" t="s">
         <v>1525</v>
-      </c>
-      <c r="C544" t="s">
-        <v>1321</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.25">
@@ -14360,18 +14351,18 @@
         <v>1526</v>
       </c>
       <c r="B545" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C545" t="s">
         <v>1527</v>
-      </c>
-      <c r="C545" t="s">
-        <v>1528</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B546" t="s">
         <v>1529</v>
-      </c>
-      <c r="B546" t="s">
-        <v>1513</v>
       </c>
       <c r="C546" t="s">
         <v>1530</v>
@@ -14811,18 +14802,18 @@
         <v>1648</v>
       </c>
       <c r="B586" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C586" t="s">
         <v>1649</v>
-      </c>
-      <c r="C586" t="s">
-        <v>1650</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B587" t="s">
         <v>1651</v>
-      </c>
-      <c r="B587" t="s">
-        <v>1513</v>
       </c>
       <c r="C587" t="s">
         <v>1652</v>
@@ -15287,18 +15278,18 @@
         <v>1777</v>
       </c>
       <c r="C629" t="s">
-        <v>1778</v>
+        <v>623</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B630" t="s">
         <v>1779</v>
       </c>
-      <c r="B630" t="s">
+      <c r="C630" t="s">
         <v>1780</v>
-      </c>
-      <c r="C630" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.25">
@@ -15705,18 +15696,18 @@
         <v>1890</v>
       </c>
       <c r="C667" t="s">
-        <v>1891</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B668" t="s">
         <v>1892</v>
       </c>
-      <c r="B668" t="s">
+      <c r="C668" t="s">
         <v>1893</v>
-      </c>
-      <c r="C668" t="s">
-        <v>1204</v>
       </c>
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.25">
@@ -15925,18 +15916,18 @@
         <v>1949</v>
       </c>
       <c r="C687" t="s">
-        <v>1950</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B688" t="s">
         <v>1951</v>
       </c>
-      <c r="B688" t="s">
+      <c r="C688" t="s">
         <v>1952</v>
-      </c>
-      <c r="C688" t="s">
-        <v>1406</v>
       </c>
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.25">
@@ -16717,18 +16708,18 @@
         <v>2164</v>
       </c>
       <c r="C759" t="s">
-        <v>2165</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="760" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
+        <v>2165</v>
+      </c>
+      <c r="B760" t="s">
         <v>2166</v>
       </c>
-      <c r="B760" t="s">
+      <c r="C760" t="s">
         <v>2167</v>
-      </c>
-      <c r="C760" t="s">
-        <v>1354</v>
       </c>
     </row>
     <row r="761" spans="1:3" x14ac:dyDescent="0.25">
@@ -16805,18 +16796,18 @@
         <v>2187</v>
       </c>
       <c r="C767" t="s">
-        <v>2188</v>
+        <v>300</v>
       </c>
     </row>
     <row r="768" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
+        <v>2188</v>
+      </c>
+      <c r="B768" t="s">
         <v>2189</v>
       </c>
-      <c r="B768" t="s">
+      <c r="C768" t="s">
         <v>2190</v>
-      </c>
-      <c r="C768" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="769" spans="1:3" x14ac:dyDescent="0.25">
@@ -16838,18 +16829,18 @@
         <v>2195</v>
       </c>
       <c r="C770" t="s">
-        <v>2196</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="771" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
+        <v>2196</v>
+      </c>
+      <c r="B771" t="s">
         <v>2197</v>
       </c>
-      <c r="B771" t="s">
+      <c r="C771" t="s">
         <v>2198</v>
-      </c>
-      <c r="C771" t="s">
-        <v>1539</v>
       </c>
     </row>
     <row r="772" spans="1:3" x14ac:dyDescent="0.25">
@@ -16970,18 +16961,18 @@
         <v>2230</v>
       </c>
       <c r="C782" t="s">
-        <v>2231</v>
+        <v>506</v>
       </c>
     </row>
     <row r="783" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
+        <v>2231</v>
+      </c>
+      <c r="B783" t="s">
         <v>2232</v>
       </c>
-      <c r="B783" t="s">
+      <c r="C783" t="s">
         <v>2233</v>
-      </c>
-      <c r="C783" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="784" spans="1:3" x14ac:dyDescent="0.25">
@@ -17872,18 +17863,18 @@
         <v>2475</v>
       </c>
       <c r="C864" t="s">
-        <v>2476</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="865" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A865" t="s">
+        <v>2476</v>
+      </c>
+      <c r="B865" t="s">
         <v>2477</v>
       </c>
-      <c r="B865" t="s">
+      <c r="C865" t="s">
         <v>2478</v>
-      </c>
-      <c r="C865" t="s">
-        <v>2461</v>
       </c>
     </row>
     <row r="866" spans="1:3" x14ac:dyDescent="0.25">
@@ -18467,17 +18458,6 @@
       </c>
       <c r="C918" t="s">
         <v>2637</v>
-      </c>
-    </row>
-    <row r="919" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A919" t="s">
-        <v>2638</v>
-      </c>
-      <c r="B919" t="s">
-        <v>2639</v>
-      </c>
-      <c r="C919" t="s">
-        <v>2640</v>
       </c>
     </row>
   </sheetData>

--- a/add-in-ids/add-ins-using-exchange-tokens.xlsx
+++ b/add-in-ids/add-ins-using-exchange-tokens.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512B215A-1239-4BC2-80F9-2B8FBC3C8C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9CAF73-4B44-4E1C-99A8-3E255F7B010D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1230" windowWidth="37710" windowHeight="14130" xr2:uid="{8FF931F1-CAD9-4954-9038-88E82260DB46}"/>
+    <workbookView xWindow="9225" yWindow="615" windowWidth="28905" windowHeight="14130" xr2:uid="{8FF931F1-CAD9-4954-9038-88E82260DB46}"/>
   </bookViews>
   <sheets>
     <sheet name="Add-ins list" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2750" uniqueCount="2639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2747" uniqueCount="2636">
   <si>
     <t>AssetID</t>
   </si>
@@ -862,15 +862,6 @@
   </si>
   <si>
     <t>Revelation Bridge</t>
-  </si>
-  <si>
-    <t>wa104380606</t>
-  </si>
-  <si>
-    <t>FA902A37-59A0-43C0-BF76-8123C20F4D4F</t>
-  </si>
-  <si>
-    <t>Mail Responder for Outlook</t>
   </si>
   <si>
     <t>wa104380613</t>
@@ -8032,8 +8023,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD6B8178-56C6-442C-A6BF-7C2D1F869861}" name="Table1" displayName="Table1" ref="A1:C918" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:C918" xr:uid="{CD6B8178-56C6-442C-A6BF-7C2D1F869861}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD6B8178-56C6-442C-A6BF-7C2D1F869861}" name="Table1" displayName="Table1" ref="A1:C917" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:C917" xr:uid="{CD6B8178-56C6-442C-A6BF-7C2D1F869861}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{39B649A1-0CDF-46AA-A276-6F4F89255D96}" name="AssetID"/>
     <tableColumn id="2" xr3:uid="{C79A1EFF-47FF-488B-A562-E9848648C952}" name="AppId"/>
@@ -8360,10 +8351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3293B4AA-89CE-4E6A-9112-DA5B905DDA88}">
-  <dimension ref="A1:C918"/>
+  <dimension ref="A1:C917"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="C200" sqref="C200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8379,7 +8370,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2638</v>
+        <v>2635</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -9477,7 +9468,7 @@
       <c r="A102" t="s">
         <v>298</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="1" t="s">
         <v>299</v>
       </c>
       <c r="C102" t="s">
@@ -9488,7 +9479,7 @@
       <c r="A103" t="s">
         <v>301</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B103" t="s">
         <v>302</v>
       </c>
       <c r="C103" t="s">
@@ -10159,7 +10150,7 @@
       <c r="A164" t="s">
         <v>484</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B164" s="1" t="s">
         <v>485</v>
       </c>
       <c r="C164" t="s">
@@ -10170,7 +10161,7 @@
       <c r="A165" t="s">
         <v>487</v>
       </c>
-      <c r="B165" s="1" t="s">
+      <c r="B165" t="s">
         <v>488</v>
       </c>
       <c r="C165" t="s">
@@ -10218,18 +10209,18 @@
         <v>500</v>
       </c>
       <c r="C169" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
+        <v>501</v>
+      </c>
+      <c r="B170" t="s">
         <v>502</v>
       </c>
-      <c r="B170" t="s">
+      <c r="C170" t="s">
         <v>503</v>
-      </c>
-      <c r="C170" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -10864,18 +10855,18 @@
         <v>675</v>
       </c>
       <c r="B228" t="s">
+        <v>452</v>
+      </c>
+      <c r="C228" t="s">
         <v>676</v>
-      </c>
-      <c r="C228" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
+        <v>677</v>
+      </c>
+      <c r="B229" t="s">
         <v>678</v>
-      </c>
-      <c r="B229" t="s">
-        <v>455</v>
       </c>
       <c r="C229" t="s">
         <v>679</v>
@@ -11469,76 +11460,76 @@
         <v>839</v>
       </c>
       <c r="B283" t="s">
-        <v>840</v>
+        <v>284</v>
       </c>
       <c r="C283" t="s">
-        <v>841</v>
+        <v>285</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B284" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C284" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B285" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C285" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B286" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C286" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B287" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C287" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B288" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C288" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
+        <v>845</v>
+      </c>
+      <c r="B289" t="s">
+        <v>846</v>
+      </c>
+      <c r="C289" t="s">
         <v>847</v>
-      </c>
-      <c r="B289" t="s">
-        <v>287</v>
-      </c>
-      <c r="C289" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
@@ -11557,54 +11548,54 @@
         <v>851</v>
       </c>
       <c r="B291" t="s">
-        <v>852</v>
+        <v>284</v>
       </c>
       <c r="C291" t="s">
-        <v>853</v>
+        <v>285</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B292" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C292" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B293" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C293" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B294" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C294" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
+        <v>855</v>
+      </c>
+      <c r="B295" t="s">
+        <v>856</v>
+      </c>
+      <c r="C295" t="s">
         <v>857</v>
-      </c>
-      <c r="B295" t="s">
-        <v>287</v>
-      </c>
-      <c r="C295" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
@@ -11623,21 +11614,21 @@
         <v>861</v>
       </c>
       <c r="B297" t="s">
-        <v>862</v>
+        <v>284</v>
       </c>
       <c r="C297" t="s">
-        <v>863</v>
+        <v>285</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
+        <v>862</v>
+      </c>
+      <c r="B298" t="s">
+        <v>863</v>
+      </c>
+      <c r="C298" t="s">
         <v>864</v>
-      </c>
-      <c r="B298" t="s">
-        <v>287</v>
-      </c>
-      <c r="C298" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
@@ -11645,32 +11636,32 @@
         <v>865</v>
       </c>
       <c r="B299" t="s">
-        <v>866</v>
+        <v>284</v>
       </c>
       <c r="C299" t="s">
-        <v>867</v>
+        <v>285</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B300" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C300" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
+        <v>867</v>
+      </c>
+      <c r="B301" t="s">
+        <v>868</v>
+      </c>
+      <c r="C301" t="s">
         <v>869</v>
-      </c>
-      <c r="B301" t="s">
-        <v>287</v>
-      </c>
-      <c r="C301" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
@@ -11733,21 +11724,21 @@
         <v>885</v>
       </c>
       <c r="B307" t="s">
-        <v>886</v>
+        <v>284</v>
       </c>
       <c r="C307" t="s">
-        <v>887</v>
+        <v>285</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
+        <v>886</v>
+      </c>
+      <c r="B308" t="s">
+        <v>887</v>
+      </c>
+      <c r="C308" t="s">
         <v>888</v>
-      </c>
-      <c r="B308" t="s">
-        <v>287</v>
-      </c>
-      <c r="C308" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
@@ -11755,252 +11746,252 @@
         <v>889</v>
       </c>
       <c r="B309" t="s">
-        <v>890</v>
+        <v>284</v>
       </c>
       <c r="C309" t="s">
-        <v>891</v>
+        <v>285</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B310" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C310" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B311" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C311" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B312" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C312" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B313" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C313" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B314" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C314" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B315" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C315" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B316" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C316" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="B317" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C317" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B318" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C318" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="B319" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C319" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B320" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C320" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B321" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C321" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B322" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C322" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B323" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C323" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B324" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C324" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B325" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C325" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="B326" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C326" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B327" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C327" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B328" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C328" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="B329" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C329" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="B330" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C330" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
+        <v>911</v>
+      </c>
+      <c r="B331" t="s">
+        <v>912</v>
+      </c>
+      <c r="C331" t="s">
         <v>913</v>
-      </c>
-      <c r="B331" t="s">
-        <v>287</v>
-      </c>
-      <c r="C331" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
@@ -12008,65 +11999,65 @@
         <v>914</v>
       </c>
       <c r="B332" t="s">
-        <v>915</v>
+        <v>284</v>
       </c>
       <c r="C332" t="s">
-        <v>916</v>
+        <v>285</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B333" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C333" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="B334" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C334" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B335" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C335" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="B336" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C336" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
+        <v>919</v>
+      </c>
+      <c r="B337" t="s">
+        <v>920</v>
+      </c>
+      <c r="C337" t="s">
         <v>921</v>
-      </c>
-      <c r="B337" t="s">
-        <v>287</v>
-      </c>
-      <c r="C337" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
@@ -12074,32 +12065,32 @@
         <v>922</v>
       </c>
       <c r="B338" t="s">
-        <v>923</v>
+        <v>284</v>
       </c>
       <c r="C338" t="s">
-        <v>924</v>
+        <v>285</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B339" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C339" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
+        <v>924</v>
+      </c>
+      <c r="B340" t="s">
+        <v>925</v>
+      </c>
+      <c r="C340" t="s">
         <v>926</v>
-      </c>
-      <c r="B340" t="s">
-        <v>287</v>
-      </c>
-      <c r="C340" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
@@ -12132,18 +12123,18 @@
         <v>934</v>
       </c>
       <c r="C343" t="s">
-        <v>935</v>
+        <v>285</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
+        <v>935</v>
+      </c>
+      <c r="B344" t="s">
         <v>936</v>
       </c>
-      <c r="B344" t="s">
+      <c r="C344" t="s">
         <v>937</v>
-      </c>
-      <c r="C344" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
@@ -12363,18 +12354,18 @@
         <v>996</v>
       </c>
       <c r="C364" t="s">
-        <v>997</v>
+        <v>285</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
+        <v>997</v>
+      </c>
+      <c r="B365" t="s">
         <v>998</v>
       </c>
-      <c r="B365" t="s">
+      <c r="C365" t="s">
         <v>999</v>
-      </c>
-      <c r="C365" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
@@ -12382,21 +12373,21 @@
         <v>1000</v>
       </c>
       <c r="B366" t="s">
-        <v>1001</v>
+        <v>38</v>
       </c>
       <c r="C366" t="s">
-        <v>1002</v>
+        <v>39</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B367" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C367" t="s">
         <v>1003</v>
-      </c>
-      <c r="B367" t="s">
-        <v>38</v>
-      </c>
-      <c r="C367" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
@@ -12404,21 +12395,21 @@
         <v>1004</v>
       </c>
       <c r="B368" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="C368" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B369" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C369" t="s">
         <v>1007</v>
-      </c>
-      <c r="B369" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C369" t="s">
-        <v>1006</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
@@ -12712,29 +12703,29 @@
         <v>1086</v>
       </c>
       <c r="B396" t="s">
-        <v>1087</v>
+        <v>996</v>
       </c>
       <c r="C396" t="s">
-        <v>1088</v>
+        <v>285</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="B397" t="s">
-        <v>999</v>
+        <v>203</v>
       </c>
       <c r="C397" t="s">
-        <v>288</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B398" t="s">
         <v>1090</v>
-      </c>
-      <c r="B398" t="s">
-        <v>203</v>
       </c>
       <c r="C398" t="s">
         <v>1091</v>
@@ -12954,18 +12945,18 @@
         <v>1149</v>
       </c>
       <c r="B418" t="s">
+        <v>640</v>
+      </c>
+      <c r="C418" t="s">
         <v>1150</v>
-      </c>
-      <c r="C418" t="s">
-        <v>1151</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B419" t="s">
         <v>1152</v>
-      </c>
-      <c r="B419" t="s">
-        <v>643</v>
       </c>
       <c r="C419" t="s">
         <v>1153</v>
@@ -13052,7 +13043,7 @@
       <c r="A427" t="s">
         <v>1175</v>
       </c>
-      <c r="B427" t="s">
+      <c r="B427" s="1" t="s">
         <v>1176</v>
       </c>
       <c r="C427" t="s">
@@ -13063,7 +13054,7 @@
       <c r="A428" t="s">
         <v>1178</v>
       </c>
-      <c r="B428" s="1" t="s">
+      <c r="B428" t="s">
         <v>1179</v>
       </c>
       <c r="C428" t="s">
@@ -13184,7 +13175,7 @@
       <c r="A439" t="s">
         <v>1211</v>
       </c>
-      <c r="B439" t="s">
+      <c r="B439" s="1" t="s">
         <v>1212</v>
       </c>
       <c r="C439" t="s">
@@ -13195,7 +13186,7 @@
       <c r="A440" t="s">
         <v>1214</v>
       </c>
-      <c r="B440" s="1" t="s">
+      <c r="B440" t="s">
         <v>1215</v>
       </c>
       <c r="C440" t="s">
@@ -13272,7 +13263,7 @@
       <c r="A447" t="s">
         <v>1235</v>
       </c>
-      <c r="B447" t="s">
+      <c r="B447" s="1" t="s">
         <v>1236</v>
       </c>
       <c r="C447" t="s">
@@ -13283,7 +13274,7 @@
       <c r="A448" t="s">
         <v>1238</v>
       </c>
-      <c r="B448" s="1" t="s">
+      <c r="B448" t="s">
         <v>1239</v>
       </c>
       <c r="C448" t="s">
@@ -13492,7 +13483,7 @@
       <c r="A467" t="s">
         <v>1295</v>
       </c>
-      <c r="B467" t="s">
+      <c r="B467" s="1" t="s">
         <v>1296</v>
       </c>
       <c r="C467" t="s">
@@ -13503,7 +13494,7 @@
       <c r="A468" t="s">
         <v>1298</v>
       </c>
-      <c r="B468" s="1" t="s">
+      <c r="B468" t="s">
         <v>1299</v>
       </c>
       <c r="C468" t="s">
@@ -13635,7 +13626,7 @@
       <c r="A480" t="s">
         <v>1334</v>
       </c>
-      <c r="B480" t="s">
+      <c r="B480" s="1" t="s">
         <v>1335</v>
       </c>
       <c r="C480" t="s">
@@ -13646,7 +13637,7 @@
       <c r="A481" t="s">
         <v>1337</v>
       </c>
-      <c r="B481" s="1" t="s">
+      <c r="B481" t="s">
         <v>1338</v>
       </c>
       <c r="C481" t="s">
@@ -13724,21 +13715,21 @@
         <v>1358</v>
       </c>
       <c r="B488" t="s">
-        <v>1359</v>
+        <v>996</v>
       </c>
       <c r="C488" t="s">
-        <v>1360</v>
+        <v>285</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B489" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C489" t="s">
         <v>1361</v>
-      </c>
-      <c r="B489" t="s">
-        <v>999</v>
-      </c>
-      <c r="C489" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.25">
@@ -14321,18 +14312,18 @@
         <v>1519</v>
       </c>
       <c r="C542" t="s">
-        <v>1520</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B543" t="s">
         <v>1521</v>
       </c>
-      <c r="B543" t="s">
+      <c r="C543" t="s">
         <v>1522</v>
-      </c>
-      <c r="C543" t="s">
-        <v>1318</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.25">
@@ -14340,18 +14331,18 @@
         <v>1523</v>
       </c>
       <c r="B544" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C544" t="s">
         <v>1524</v>
-      </c>
-      <c r="C544" t="s">
-        <v>1525</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B545" t="s">
         <v>1526</v>
-      </c>
-      <c r="B545" t="s">
-        <v>1510</v>
       </c>
       <c r="C545" t="s">
         <v>1527</v>
@@ -14791,18 +14782,18 @@
         <v>1645</v>
       </c>
       <c r="B585" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C585" t="s">
         <v>1646</v>
-      </c>
-      <c r="C585" t="s">
-        <v>1647</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B586" t="s">
         <v>1648</v>
-      </c>
-      <c r="B586" t="s">
-        <v>1510</v>
       </c>
       <c r="C586" t="s">
         <v>1649</v>
@@ -15267,18 +15258,18 @@
         <v>1774</v>
       </c>
       <c r="C628" t="s">
-        <v>1775</v>
+        <v>620</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B629" t="s">
         <v>1776</v>
       </c>
-      <c r="B629" t="s">
+      <c r="C629" t="s">
         <v>1777</v>
-      </c>
-      <c r="C629" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.25">
@@ -15685,18 +15676,18 @@
         <v>1887</v>
       </c>
       <c r="C666" t="s">
-        <v>1888</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
+        <v>1888</v>
+      </c>
+      <c r="B667" t="s">
         <v>1889</v>
       </c>
-      <c r="B667" t="s">
+      <c r="C667" t="s">
         <v>1890</v>
-      </c>
-      <c r="C667" t="s">
-        <v>1201</v>
       </c>
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.25">
@@ -15905,18 +15896,18 @@
         <v>1946</v>
       </c>
       <c r="C686" t="s">
-        <v>1947</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
+        <v>1947</v>
+      </c>
+      <c r="B687" t="s">
         <v>1948</v>
       </c>
-      <c r="B687" t="s">
+      <c r="C687" t="s">
         <v>1949</v>
-      </c>
-      <c r="C687" t="s">
-        <v>1403</v>
       </c>
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.25">
@@ -16697,18 +16688,18 @@
         <v>2161</v>
       </c>
       <c r="C758" t="s">
-        <v>2162</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="759" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
+        <v>2162</v>
+      </c>
+      <c r="B759" t="s">
         <v>2163</v>
       </c>
-      <c r="B759" t="s">
+      <c r="C759" t="s">
         <v>2164</v>
-      </c>
-      <c r="C759" t="s">
-        <v>1351</v>
       </c>
     </row>
     <row r="760" spans="1:3" x14ac:dyDescent="0.25">
@@ -16785,18 +16776,18 @@
         <v>2184</v>
       </c>
       <c r="C766" t="s">
-        <v>2185</v>
+        <v>297</v>
       </c>
     </row>
     <row r="767" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
+        <v>2185</v>
+      </c>
+      <c r="B767" t="s">
         <v>2186</v>
       </c>
-      <c r="B767" t="s">
+      <c r="C767" t="s">
         <v>2187</v>
-      </c>
-      <c r="C767" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="768" spans="1:3" x14ac:dyDescent="0.25">
@@ -16818,18 +16809,18 @@
         <v>2192</v>
       </c>
       <c r="C769" t="s">
-        <v>2193</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="770" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
+        <v>2193</v>
+      </c>
+      <c r="B770" t="s">
         <v>2194</v>
       </c>
-      <c r="B770" t="s">
+      <c r="C770" t="s">
         <v>2195</v>
-      </c>
-      <c r="C770" t="s">
-        <v>1536</v>
       </c>
     </row>
     <row r="771" spans="1:3" x14ac:dyDescent="0.25">
@@ -16950,18 +16941,18 @@
         <v>2227</v>
       </c>
       <c r="C781" t="s">
-        <v>2228</v>
+        <v>503</v>
       </c>
     </row>
     <row r="782" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
+        <v>2228</v>
+      </c>
+      <c r="B782" t="s">
         <v>2229</v>
       </c>
-      <c r="B782" t="s">
+      <c r="C782" t="s">
         <v>2230</v>
-      </c>
-      <c r="C782" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="783" spans="1:3" x14ac:dyDescent="0.25">
@@ -17852,18 +17843,18 @@
         <v>2472</v>
       </c>
       <c r="C863" t="s">
-        <v>2473</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="864" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A864" t="s">
+        <v>2473</v>
+      </c>
+      <c r="B864" t="s">
         <v>2474</v>
       </c>
-      <c r="B864" t="s">
+      <c r="C864" t="s">
         <v>2475</v>
-      </c>
-      <c r="C864" t="s">
-        <v>2458</v>
       </c>
     </row>
     <row r="865" spans="1:3" x14ac:dyDescent="0.25">
@@ -18447,17 +18438,6 @@
       </c>
       <c r="C917" t="s">
         <v>2634</v>
-      </c>
-    </row>
-    <row r="918" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A918" t="s">
-        <v>2635</v>
-      </c>
-      <c r="B918" t="s">
-        <v>2636</v>
-      </c>
-      <c r="C918" t="s">
-        <v>2637</v>
       </c>
     </row>
   </sheetData>

--- a/add-in-ids/add-ins-using-exchange-tokens.xlsx
+++ b/add-in-ids/add-ins-using-exchange-tokens.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9CAF73-4B44-4E1C-99A8-3E255F7B010D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01AB6269-6BB7-4B0D-9BF6-E5AB71C5060F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9225" yWindow="615" windowWidth="28905" windowHeight="14130" xr2:uid="{8FF931F1-CAD9-4954-9038-88E82260DB46}"/>
+    <workbookView xWindow="2085" yWindow="975" windowWidth="28905" windowHeight="14130" xr2:uid="{8FF931F1-CAD9-4954-9038-88E82260DB46}"/>
   </bookViews>
   <sheets>
     <sheet name="Add-ins list" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2747" uniqueCount="2636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2744" uniqueCount="2633">
   <si>
     <t>AssetID</t>
   </si>
@@ -700,15 +700,6 @@
   </si>
   <si>
     <t>QorusDocs</t>
-  </si>
-  <si>
-    <t>wa104380335</t>
-  </si>
-  <si>
-    <t>19d7837e-b9fc-4726-98ef-aaab8507fed1</t>
-  </si>
-  <si>
-    <t>Emojis</t>
   </si>
   <si>
     <t>wa104380380</t>
@@ -8023,8 +8014,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD6B8178-56C6-442C-A6BF-7C2D1F869861}" name="Table1" displayName="Table1" ref="A1:C917" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:C917" xr:uid="{CD6B8178-56C6-442C-A6BF-7C2D1F869861}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD6B8178-56C6-442C-A6BF-7C2D1F869861}" name="Table1" displayName="Table1" ref="A1:C916" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:C916" xr:uid="{CD6B8178-56C6-442C-A6BF-7C2D1F869861}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{39B649A1-0CDF-46AA-A276-6F4F89255D96}" name="AssetID"/>
     <tableColumn id="2" xr3:uid="{C79A1EFF-47FF-488B-A562-E9848648C952}" name="AppId"/>
@@ -8351,10 +8342,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3293B4AA-89CE-4E6A-9112-DA5B905DDA88}">
-  <dimension ref="A1:C917"/>
+  <dimension ref="A1:C916"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="C200" sqref="C200"/>
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8370,7 +8361,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2635</v>
+        <v>2632</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -9259,7 +9250,7 @@
       <c r="A83" t="s">
         <v>241</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="1" t="s">
         <v>242</v>
       </c>
       <c r="C83" t="s">
@@ -9270,7 +9261,7 @@
       <c r="A84" t="s">
         <v>244</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" t="s">
         <v>245</v>
       </c>
       <c r="C84" t="s">
@@ -9457,7 +9448,7 @@
       <c r="A101" t="s">
         <v>295</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="1" t="s">
         <v>296</v>
       </c>
       <c r="C101" t="s">
@@ -9468,7 +9459,7 @@
       <c r="A102" t="s">
         <v>298</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B102" t="s">
         <v>299</v>
       </c>
       <c r="C102" t="s">
@@ -10139,7 +10130,7 @@
       <c r="A163" t="s">
         <v>481</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B163" s="1" t="s">
         <v>482</v>
       </c>
       <c r="C163" t="s">
@@ -10150,7 +10141,7 @@
       <c r="A164" t="s">
         <v>484</v>
       </c>
-      <c r="B164" s="1" t="s">
+      <c r="B164" t="s">
         <v>485</v>
       </c>
       <c r="C164" t="s">
@@ -10198,18 +10189,18 @@
         <v>497</v>
       </c>
       <c r="C168" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
+        <v>498</v>
+      </c>
+      <c r="B169" t="s">
         <v>499</v>
       </c>
-      <c r="B169" t="s">
+      <c r="C169" t="s">
         <v>500</v>
-      </c>
-      <c r="C169" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -10844,18 +10835,18 @@
         <v>672</v>
       </c>
       <c r="B227" t="s">
+        <v>449</v>
+      </c>
+      <c r="C227" t="s">
         <v>673</v>
-      </c>
-      <c r="C227" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
+        <v>674</v>
+      </c>
+      <c r="B228" t="s">
         <v>675</v>
-      </c>
-      <c r="B228" t="s">
-        <v>452</v>
       </c>
       <c r="C228" t="s">
         <v>676</v>
@@ -11449,76 +11440,76 @@
         <v>836</v>
       </c>
       <c r="B282" t="s">
-        <v>837</v>
+        <v>281</v>
       </c>
       <c r="C282" t="s">
-        <v>838</v>
+        <v>282</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B283" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C283" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B284" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C284" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B285" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C285" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B286" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C286" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B287" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C287" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
+        <v>842</v>
+      </c>
+      <c r="B288" t="s">
+        <v>843</v>
+      </c>
+      <c r="C288" t="s">
         <v>844</v>
-      </c>
-      <c r="B288" t="s">
-        <v>284</v>
-      </c>
-      <c r="C288" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
@@ -11537,54 +11528,54 @@
         <v>848</v>
       </c>
       <c r="B290" t="s">
-        <v>849</v>
+        <v>281</v>
       </c>
       <c r="C290" t="s">
-        <v>850</v>
+        <v>282</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B291" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C291" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B292" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C292" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B293" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C293" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
+        <v>852</v>
+      </c>
+      <c r="B294" t="s">
+        <v>853</v>
+      </c>
+      <c r="C294" t="s">
         <v>854</v>
-      </c>
-      <c r="B294" t="s">
-        <v>284</v>
-      </c>
-      <c r="C294" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
@@ -11603,21 +11594,21 @@
         <v>858</v>
       </c>
       <c r="B296" t="s">
-        <v>859</v>
+        <v>281</v>
       </c>
       <c r="C296" t="s">
-        <v>860</v>
+        <v>282</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
+        <v>859</v>
+      </c>
+      <c r="B297" t="s">
+        <v>860</v>
+      </c>
+      <c r="C297" t="s">
         <v>861</v>
-      </c>
-      <c r="B297" t="s">
-        <v>284</v>
-      </c>
-      <c r="C297" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
@@ -11625,32 +11616,32 @@
         <v>862</v>
       </c>
       <c r="B298" t="s">
-        <v>863</v>
+        <v>281</v>
       </c>
       <c r="C298" t="s">
-        <v>864</v>
+        <v>282</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B299" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C299" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
+        <v>864</v>
+      </c>
+      <c r="B300" t="s">
+        <v>865</v>
+      </c>
+      <c r="C300" t="s">
         <v>866</v>
-      </c>
-      <c r="B300" t="s">
-        <v>284</v>
-      </c>
-      <c r="C300" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
@@ -11713,21 +11704,21 @@
         <v>882</v>
       </c>
       <c r="B306" t="s">
-        <v>883</v>
+        <v>281</v>
       </c>
       <c r="C306" t="s">
-        <v>884</v>
+        <v>282</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
+        <v>883</v>
+      </c>
+      <c r="B307" t="s">
+        <v>884</v>
+      </c>
+      <c r="C307" t="s">
         <v>885</v>
-      </c>
-      <c r="B307" t="s">
-        <v>284</v>
-      </c>
-      <c r="C307" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
@@ -11735,252 +11726,252 @@
         <v>886</v>
       </c>
       <c r="B308" t="s">
-        <v>887</v>
+        <v>281</v>
       </c>
       <c r="C308" t="s">
-        <v>888</v>
+        <v>282</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B309" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C309" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B310" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C310" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B311" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C311" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B312" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C312" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B313" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C313" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B314" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C314" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B315" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C315" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B316" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C316" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B317" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C317" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B318" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C318" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="B319" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C319" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B320" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C320" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="B321" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C321" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B322" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C322" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B323" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C323" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B324" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C324" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B325" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C325" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B326" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C326" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B327" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C327" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="B328" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C328" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B329" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C329" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
+        <v>908</v>
+      </c>
+      <c r="B330" t="s">
+        <v>909</v>
+      </c>
+      <c r="C330" t="s">
         <v>910</v>
-      </c>
-      <c r="B330" t="s">
-        <v>284</v>
-      </c>
-      <c r="C330" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
@@ -11988,65 +11979,65 @@
         <v>911</v>
       </c>
       <c r="B331" t="s">
-        <v>912</v>
+        <v>281</v>
       </c>
       <c r="C331" t="s">
-        <v>913</v>
+        <v>282</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="B332" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C332" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B333" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C333" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="B334" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C334" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B335" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C335" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
+        <v>916</v>
+      </c>
+      <c r="B336" t="s">
+        <v>917</v>
+      </c>
+      <c r="C336" t="s">
         <v>918</v>
-      </c>
-      <c r="B336" t="s">
-        <v>284</v>
-      </c>
-      <c r="C336" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
@@ -12054,32 +12045,32 @@
         <v>919</v>
       </c>
       <c r="B337" t="s">
-        <v>920</v>
+        <v>281</v>
       </c>
       <c r="C337" t="s">
-        <v>921</v>
+        <v>282</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="B338" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C338" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
+        <v>921</v>
+      </c>
+      <c r="B339" t="s">
+        <v>922</v>
+      </c>
+      <c r="C339" t="s">
         <v>923</v>
-      </c>
-      <c r="B339" t="s">
-        <v>284</v>
-      </c>
-      <c r="C339" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
@@ -12112,18 +12103,18 @@
         <v>931</v>
       </c>
       <c r="C342" t="s">
-        <v>932</v>
+        <v>282</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
+        <v>932</v>
+      </c>
+      <c r="B343" t="s">
         <v>933</v>
       </c>
-      <c r="B343" t="s">
+      <c r="C343" t="s">
         <v>934</v>
-      </c>
-      <c r="C343" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
@@ -12343,18 +12334,18 @@
         <v>993</v>
       </c>
       <c r="C363" t="s">
-        <v>994</v>
+        <v>282</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
+        <v>994</v>
+      </c>
+      <c r="B364" t="s">
         <v>995</v>
       </c>
-      <c r="B364" t="s">
+      <c r="C364" t="s">
         <v>996</v>
-      </c>
-      <c r="C364" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
@@ -12362,21 +12353,21 @@
         <v>997</v>
       </c>
       <c r="B365" t="s">
-        <v>998</v>
+        <v>38</v>
       </c>
       <c r="C365" t="s">
-        <v>999</v>
+        <v>39</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
+        <v>998</v>
+      </c>
+      <c r="B366" t="s">
+        <v>999</v>
+      </c>
+      <c r="C366" t="s">
         <v>1000</v>
-      </c>
-      <c r="B366" t="s">
-        <v>38</v>
-      </c>
-      <c r="C366" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
@@ -12384,21 +12375,21 @@
         <v>1001</v>
       </c>
       <c r="B367" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C367" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B368" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C368" t="s">
         <v>1004</v>
-      </c>
-      <c r="B368" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C368" t="s">
-        <v>1003</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
@@ -12692,29 +12683,29 @@
         <v>1083</v>
       </c>
       <c r="B395" t="s">
-        <v>1084</v>
+        <v>993</v>
       </c>
       <c r="C395" t="s">
-        <v>1085</v>
+        <v>282</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="B396" t="s">
-        <v>996</v>
+        <v>203</v>
       </c>
       <c r="C396" t="s">
-        <v>285</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B397" t="s">
         <v>1087</v>
-      </c>
-      <c r="B397" t="s">
-        <v>203</v>
       </c>
       <c r="C397" t="s">
         <v>1088</v>
@@ -12934,18 +12925,18 @@
         <v>1146</v>
       </c>
       <c r="B417" t="s">
+        <v>637</v>
+      </c>
+      <c r="C417" t="s">
         <v>1147</v>
-      </c>
-      <c r="C417" t="s">
-        <v>1148</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B418" t="s">
         <v>1149</v>
-      </c>
-      <c r="B418" t="s">
-        <v>640</v>
       </c>
       <c r="C418" t="s">
         <v>1150</v>
@@ -13032,7 +13023,7 @@
       <c r="A426" t="s">
         <v>1172</v>
       </c>
-      <c r="B426" t="s">
+      <c r="B426" s="1" t="s">
         <v>1173</v>
       </c>
       <c r="C426" t="s">
@@ -13043,7 +13034,7 @@
       <c r="A427" t="s">
         <v>1175</v>
       </c>
-      <c r="B427" s="1" t="s">
+      <c r="B427" t="s">
         <v>1176</v>
       </c>
       <c r="C427" t="s">
@@ -13164,7 +13155,7 @@
       <c r="A438" t="s">
         <v>1208</v>
       </c>
-      <c r="B438" t="s">
+      <c r="B438" s="1" t="s">
         <v>1209</v>
       </c>
       <c r="C438" t="s">
@@ -13175,7 +13166,7 @@
       <c r="A439" t="s">
         <v>1211</v>
       </c>
-      <c r="B439" s="1" t="s">
+      <c r="B439" t="s">
         <v>1212</v>
       </c>
       <c r="C439" t="s">
@@ -13252,7 +13243,7 @@
       <c r="A446" t="s">
         <v>1232</v>
       </c>
-      <c r="B446" t="s">
+      <c r="B446" s="1" t="s">
         <v>1233</v>
       </c>
       <c r="C446" t="s">
@@ -13263,7 +13254,7 @@
       <c r="A447" t="s">
         <v>1235</v>
       </c>
-      <c r="B447" s="1" t="s">
+      <c r="B447" t="s">
         <v>1236</v>
       </c>
       <c r="C447" t="s">
@@ -13472,7 +13463,7 @@
       <c r="A466" t="s">
         <v>1292</v>
       </c>
-      <c r="B466" t="s">
+      <c r="B466" s="1" t="s">
         <v>1293</v>
       </c>
       <c r="C466" t="s">
@@ -13483,7 +13474,7 @@
       <c r="A467" t="s">
         <v>1295</v>
       </c>
-      <c r="B467" s="1" t="s">
+      <c r="B467" t="s">
         <v>1296</v>
       </c>
       <c r="C467" t="s">
@@ -13615,7 +13606,7 @@
       <c r="A479" t="s">
         <v>1331</v>
       </c>
-      <c r="B479" t="s">
+      <c r="B479" s="1" t="s">
         <v>1332</v>
       </c>
       <c r="C479" t="s">
@@ -13626,7 +13617,7 @@
       <c r="A480" t="s">
         <v>1334</v>
       </c>
-      <c r="B480" s="1" t="s">
+      <c r="B480" t="s">
         <v>1335</v>
       </c>
       <c r="C480" t="s">
@@ -13704,21 +13695,21 @@
         <v>1355</v>
       </c>
       <c r="B487" t="s">
-        <v>1356</v>
+        <v>993</v>
       </c>
       <c r="C487" t="s">
-        <v>1357</v>
+        <v>282</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B488" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C488" t="s">
         <v>1358</v>
-      </c>
-      <c r="B488" t="s">
-        <v>996</v>
-      </c>
-      <c r="C488" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.25">
@@ -14301,18 +14292,18 @@
         <v>1516</v>
       </c>
       <c r="C541" t="s">
-        <v>1517</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B542" t="s">
         <v>1518</v>
       </c>
-      <c r="B542" t="s">
+      <c r="C542" t="s">
         <v>1519</v>
-      </c>
-      <c r="C542" t="s">
-        <v>1315</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.25">
@@ -14320,18 +14311,18 @@
         <v>1520</v>
       </c>
       <c r="B543" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C543" t="s">
         <v>1521</v>
-      </c>
-      <c r="C543" t="s">
-        <v>1522</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B544" t="s">
         <v>1523</v>
-      </c>
-      <c r="B544" t="s">
-        <v>1507</v>
       </c>
       <c r="C544" t="s">
         <v>1524</v>
@@ -14771,18 +14762,18 @@
         <v>1642</v>
       </c>
       <c r="B584" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C584" t="s">
         <v>1643</v>
-      </c>
-      <c r="C584" t="s">
-        <v>1644</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B585" t="s">
         <v>1645</v>
-      </c>
-      <c r="B585" t="s">
-        <v>1507</v>
       </c>
       <c r="C585" t="s">
         <v>1646</v>
@@ -15247,18 +15238,18 @@
         <v>1771</v>
       </c>
       <c r="C627" t="s">
-        <v>1772</v>
+        <v>617</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
+        <v>1772</v>
+      </c>
+      <c r="B628" t="s">
         <v>1773</v>
       </c>
-      <c r="B628" t="s">
+      <c r="C628" t="s">
         <v>1774</v>
-      </c>
-      <c r="C628" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.25">
@@ -15665,18 +15656,18 @@
         <v>1884</v>
       </c>
       <c r="C665" t="s">
-        <v>1885</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
+        <v>1885</v>
+      </c>
+      <c r="B666" t="s">
         <v>1886</v>
       </c>
-      <c r="B666" t="s">
+      <c r="C666" t="s">
         <v>1887</v>
-      </c>
-      <c r="C666" t="s">
-        <v>1198</v>
       </c>
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.25">
@@ -15885,18 +15876,18 @@
         <v>1943</v>
       </c>
       <c r="C685" t="s">
-        <v>1944</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
+        <v>1944</v>
+      </c>
+      <c r="B686" t="s">
         <v>1945</v>
       </c>
-      <c r="B686" t="s">
+      <c r="C686" t="s">
         <v>1946</v>
-      </c>
-      <c r="C686" t="s">
-        <v>1400</v>
       </c>
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.25">
@@ -16677,18 +16668,18 @@
         <v>2158</v>
       </c>
       <c r="C757" t="s">
-        <v>2159</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="758" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
+        <v>2159</v>
+      </c>
+      <c r="B758" t="s">
         <v>2160</v>
       </c>
-      <c r="B758" t="s">
+      <c r="C758" t="s">
         <v>2161</v>
-      </c>
-      <c r="C758" t="s">
-        <v>1348</v>
       </c>
     </row>
     <row r="759" spans="1:3" x14ac:dyDescent="0.25">
@@ -16765,18 +16756,18 @@
         <v>2181</v>
       </c>
       <c r="C765" t="s">
-        <v>2182</v>
+        <v>294</v>
       </c>
     </row>
     <row r="766" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B766" t="s">
         <v>2183</v>
       </c>
-      <c r="B766" t="s">
+      <c r="C766" t="s">
         <v>2184</v>
-      </c>
-      <c r="C766" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="767" spans="1:3" x14ac:dyDescent="0.25">
@@ -16798,18 +16789,18 @@
         <v>2189</v>
       </c>
       <c r="C768" t="s">
-        <v>2190</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="769" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
+        <v>2190</v>
+      </c>
+      <c r="B769" t="s">
         <v>2191</v>
       </c>
-      <c r="B769" t="s">
+      <c r="C769" t="s">
         <v>2192</v>
-      </c>
-      <c r="C769" t="s">
-        <v>1533</v>
       </c>
     </row>
     <row r="770" spans="1:3" x14ac:dyDescent="0.25">
@@ -16930,18 +16921,18 @@
         <v>2224</v>
       </c>
       <c r="C780" t="s">
-        <v>2225</v>
+        <v>500</v>
       </c>
     </row>
     <row r="781" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
+        <v>2225</v>
+      </c>
+      <c r="B781" t="s">
         <v>2226</v>
       </c>
-      <c r="B781" t="s">
+      <c r="C781" t="s">
         <v>2227</v>
-      </c>
-      <c r="C781" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="782" spans="1:3" x14ac:dyDescent="0.25">
@@ -17832,18 +17823,18 @@
         <v>2469</v>
       </c>
       <c r="C862" t="s">
-        <v>2470</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="863" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A863" t="s">
+        <v>2470</v>
+      </c>
+      <c r="B863" t="s">
         <v>2471</v>
       </c>
-      <c r="B863" t="s">
+      <c r="C863" t="s">
         <v>2472</v>
-      </c>
-      <c r="C863" t="s">
-        <v>2455</v>
       </c>
     </row>
     <row r="864" spans="1:3" x14ac:dyDescent="0.25">
@@ -18427,17 +18418,6 @@
       </c>
       <c r="C916" t="s">
         <v>2631</v>
-      </c>
-    </row>
-    <row r="917" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A917" t="s">
-        <v>2632</v>
-      </c>
-      <c r="B917" t="s">
-        <v>2633</v>
-      </c>
-      <c r="C917" t="s">
-        <v>2634</v>
       </c>
     </row>
   </sheetData>

--- a/add-in-ids/add-ins-using-exchange-tokens.xlsx
+++ b/add-in-ids/add-ins-using-exchange-tokens.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01AB6269-6BB7-4B0D-9BF6-E5AB71C5060F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBEFD449-83CE-468C-B184-13CEB31B8852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2085" yWindow="975" windowWidth="28905" windowHeight="14130" xr2:uid="{8FF931F1-CAD9-4954-9038-88E82260DB46}"/>
+    <workbookView xWindow="4200" yWindow="1350" windowWidth="28905" windowHeight="14130" xr2:uid="{8FF931F1-CAD9-4954-9038-88E82260DB46}"/>
   </bookViews>
   <sheets>
     <sheet name="Add-ins list" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2744" uniqueCount="2633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2741" uniqueCount="2630">
   <si>
     <t>AssetID</t>
   </si>
@@ -7030,15 +7030,6 @@
   </si>
   <si>
     <t>MailMaestro - ChatGPT for Outlook</t>
-  </si>
-  <si>
-    <t>wa200005174</t>
-  </si>
-  <si>
-    <t>7bbcce98-cfd5-40a4-80af-07160e8dd88b</t>
-  </si>
-  <si>
-    <t>SecureMailMerge</t>
   </si>
   <si>
     <t>wa200005213</t>
@@ -8014,8 +8005,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD6B8178-56C6-442C-A6BF-7C2D1F869861}" name="Table1" displayName="Table1" ref="A1:C916" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:C916" xr:uid="{CD6B8178-56C6-442C-A6BF-7C2D1F869861}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD6B8178-56C6-442C-A6BF-7C2D1F869861}" name="Table1" displayName="Table1" ref="A1:C915" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:C915" xr:uid="{CD6B8178-56C6-442C-A6BF-7C2D1F869861}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{39B649A1-0CDF-46AA-A276-6F4F89255D96}" name="AssetID"/>
     <tableColumn id="2" xr3:uid="{C79A1EFF-47FF-488B-A562-E9848648C952}" name="AppId"/>
@@ -8342,10 +8333,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3293B4AA-89CE-4E6A-9112-DA5B905DDA88}">
-  <dimension ref="A1:C916"/>
+  <dimension ref="A1:C915"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8361,7 +8352,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2632</v>
+        <v>2629</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -17812,18 +17803,18 @@
         <v>2466</v>
       </c>
       <c r="C861" t="s">
-        <v>2467</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="862" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A862" t="s">
+        <v>2467</v>
+      </c>
+      <c r="B862" t="s">
         <v>2468</v>
       </c>
-      <c r="B862" t="s">
+      <c r="C862" t="s">
         <v>2469</v>
-      </c>
-      <c r="C862" t="s">
-        <v>2452</v>
       </c>
     </row>
     <row r="863" spans="1:3" x14ac:dyDescent="0.25">
@@ -18407,17 +18398,6 @@
       </c>
       <c r="C915" t="s">
         <v>2628</v>
-      </c>
-    </row>
-    <row r="916" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A916" t="s">
-        <v>2629</v>
-      </c>
-      <c r="B916" t="s">
-        <v>2630</v>
-      </c>
-      <c r="C916" t="s">
-        <v>2631</v>
       </c>
     </row>
   </sheetData>

--- a/add-in-ids/add-ins-using-exchange-tokens.xlsx
+++ b/add-in-ids/add-ins-using-exchange-tokens.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBEFD449-83CE-468C-B184-13CEB31B8852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB031348-F088-4EA8-8002-58C2D4A3CF0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="1350" windowWidth="28905" windowHeight="14130" xr2:uid="{8FF931F1-CAD9-4954-9038-88E82260DB46}"/>
+    <workbookView xWindow="195" yWindow="735" windowWidth="18615" windowHeight="14130" xr2:uid="{8FF931F1-CAD9-4954-9038-88E82260DB46}"/>
   </bookViews>
   <sheets>
     <sheet name="Add-ins list" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2741" uniqueCount="2630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2738" uniqueCount="2628">
   <si>
     <t>AssetID</t>
   </si>
@@ -4060,12 +4060,6 @@
   </si>
   <si>
     <t>Humantelligence</t>
-  </si>
-  <si>
-    <t>wa200002469</t>
-  </si>
-  <si>
-    <t>3F32746A-0586-4C54-B8CE-D3B611C5B6C8</t>
   </si>
   <si>
     <t>Report Phishing</t>
@@ -8005,8 +7999,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD6B8178-56C6-442C-A6BF-7C2D1F869861}" name="Table1" displayName="Table1" ref="A1:C915" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:C915" xr:uid="{CD6B8178-56C6-442C-A6BF-7C2D1F869861}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD6B8178-56C6-442C-A6BF-7C2D1F869861}" name="Table1" displayName="Table1" ref="A1:C914" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:C914" xr:uid="{CD6B8178-56C6-442C-A6BF-7C2D1F869861}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{39B649A1-0CDF-46AA-A276-6F4F89255D96}" name="AssetID"/>
     <tableColumn id="2" xr3:uid="{C79A1EFF-47FF-488B-A562-E9848648C952}" name="AppId"/>
@@ -8333,10 +8327,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3293B4AA-89CE-4E6A-9112-DA5B905DDA88}">
-  <dimension ref="A1:C915"/>
+  <dimension ref="A1:C914"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A469" workbookViewId="0">
+      <selection activeCell="A483" sqref="A483:XFD483"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8352,7 +8346,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2629</v>
+        <v>2627</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -13639,640 +13633,640 @@
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="B483" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="C483" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="B484" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C484" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="B485" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="C485" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B486" t="s">
-        <v>1353</v>
+        <v>993</v>
       </c>
       <c r="C486" t="s">
-        <v>1354</v>
+        <v>282</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B487" t="s">
         <v>1355</v>
       </c>
-      <c r="B487" t="s">
-        <v>993</v>
-      </c>
       <c r="C487" t="s">
-        <v>282</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="B488" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="C488" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="B489" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="C489" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="B490" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="C490" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="B491" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="C491" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="B492" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="C492" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="B493" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="C493" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="B494" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="C494" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="B495" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="C495" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="B496" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="C496" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="B497" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="C497" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="B498" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="C498" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="B499" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="C499" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="B500" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="C500" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="B501" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="C501" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="B502" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="C502" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="B503" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="C503" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="B504" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="C504" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="B505" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="C505" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="B506" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="C506" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="B507" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="C507" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="B508" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="C508" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="B509" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="C509" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="B510" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="C510" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="B511" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="C511" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="B512" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="C512" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="B513" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="C513" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="B514" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="C514" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="B515" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="C515" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="B516" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="C516" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="B517" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="C517" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="B518" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="C518" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="B519" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="C519" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="B520" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="C520" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="B521" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="C521" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="B522" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="C522" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="B523" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="C523" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="B524" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="C524" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="B525" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="C525" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="B526" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="C526" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="B527" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="C527" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="B528" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="C528" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="B529" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="C529" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="B530" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="C530" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="B531" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="C531" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="B532" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="C532" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="B533" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="C533" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="B534" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="C534" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="B535" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="C535" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="B536" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="C536" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="B537" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="C537" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="B538" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="C538" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="B539" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="C539" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="B540" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="C540" t="s">
-        <v>1514</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.25">
@@ -14283,15 +14277,15 @@
         <v>1516</v>
       </c>
       <c r="C541" t="s">
-        <v>1312</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="B542" t="s">
-        <v>1518</v>
+        <v>1502</v>
       </c>
       <c r="C542" t="s">
         <v>1519</v>
@@ -14302,447 +14296,447 @@
         <v>1520</v>
       </c>
       <c r="B543" t="s">
-        <v>1504</v>
+        <v>1521</v>
       </c>
       <c r="C543" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="B544" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="C544" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="B545" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="C545" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="B546" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="C546" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="B547" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="C547" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="B548" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="C548" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="B549" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="C549" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="B550" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="C550" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="B551" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="C551" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="B552" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="C552" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="B553" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="C553" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="B554" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="C554" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="B555" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="C555" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="B556" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="C556" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="B557" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="C557" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="B558" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="C558" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="B559" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="C559" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="B560" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="C560" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="B561" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="C561" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="B562" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="C562" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="B563" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="C563" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="B564" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="C564" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="B565" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="C565" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="B566" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="C566" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="B567" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="C567" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="B568" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="C568" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="B569" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="C569" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="B570" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="C570" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="B571" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="C571" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="B572" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="C572" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="B573" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="C573" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="B574" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="C574" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="B575" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="C575" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="B576" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="C576" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="B577" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="C577" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="B578" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="C578" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="B579" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="C579" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="B580" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="C580" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="B581" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="C581" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="B582" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="C582" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="B583" t="s">
-        <v>1640</v>
+        <v>1502</v>
       </c>
       <c r="C583" t="s">
         <v>1641</v>
@@ -14753,472 +14747,472 @@
         <v>1642</v>
       </c>
       <c r="B584" t="s">
-        <v>1504</v>
+        <v>1643</v>
       </c>
       <c r="C584" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="B585" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="C585" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="B586" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="C586" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="B587" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="C587" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="B588" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="C588" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="B589" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="C589" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="B590" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="C590" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="B591" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="C591" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="B592" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="C592" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="B593" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="C593" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="B594" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="C594" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="B595" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="C595" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="B596" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="C596" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="B597" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="C597" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="B598" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="C598" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="B599" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="C599" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="B600" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="C600" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="B601" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="C601" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="B602" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="C602" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="B603" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="C603" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="B604" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="C604" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="B605" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="C605" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="B606" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="C606" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="B607" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="C607" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="B608" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="C608" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="B609" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="C609" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="B610" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="C610" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="B611" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="C611" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B612" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="C612" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="B613" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="C613" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="B614" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="C614" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="B615" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="C615" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B616" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="C616" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="B617" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="C617" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="B618" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="C618" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="B619" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="C619" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="B620" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="C620" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="B621" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="C621" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B622" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="C622" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="B623" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="C623" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B624" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="C624" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="B625" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="C625" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="B626" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="C626" t="s">
-        <v>1769</v>
+        <v>617</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.25">
@@ -15229,414 +15223,414 @@
         <v>1771</v>
       </c>
       <c r="C627" t="s">
-        <v>617</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="B628" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="C628" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="B629" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="C629" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="B630" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="C630" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="B631" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="C631" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="B632" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="C632" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="B633" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="C633" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="B634" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="C634" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="B635" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="C635" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="B636" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="C636" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="B637" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="C637" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="B638" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="C638" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="B639" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="C639" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="B640" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="C640" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="B641" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="C641" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="B642" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="C642" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="B643" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="C643" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="B644" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="C644" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="B645" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="C645" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B646" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="C646" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="B647" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="C647" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="B648" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="C648" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="B649" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="C649" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="B650" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="C650" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="B651" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="C651" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="B652" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="C652" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="B653" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="C653" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="B654" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="C654" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="B655" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="C655" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="B656" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="C656" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="B657" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="C657" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="B658" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="C658" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="B659" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="C659" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="B660" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="C660" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="B661" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="C661" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="B662" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="C662" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="B663" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="C663" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="B664" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="C664" t="s">
-        <v>1882</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.25">
@@ -15647,216 +15641,216 @@
         <v>1884</v>
       </c>
       <c r="C665" t="s">
-        <v>1195</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="B666" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="C666" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="B667" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="C667" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="B668" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="C668" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="B669" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="C669" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="B670" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
       <c r="C670" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="671" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="B671" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="C671" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="672" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="B672" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="C672" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="B673" t="s">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="C673" t="s">
-        <v>1908</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="B674" t="s">
-        <v>1910</v>
+        <v>1911</v>
       </c>
       <c r="C674" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
-        <v>1912</v>
+        <v>1913</v>
       </c>
       <c r="B675" t="s">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="C675" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="B676" t="s">
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="C676" t="s">
-        <v>1917</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="B677" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="C677" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="B678" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="C678" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
-        <v>1924</v>
+        <v>1925</v>
       </c>
       <c r="B679" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="C679" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
-        <v>1927</v>
+        <v>1928</v>
       </c>
       <c r="B680" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
       <c r="C680" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
       <c r="B681" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="C681" t="s">
-        <v>1932</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="B682" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="C682" t="s">
-        <v>1935</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
-        <v>1936</v>
+        <v>1937</v>
       </c>
       <c r="B683" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="C683" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
-        <v>1939</v>
+        <v>1940</v>
       </c>
       <c r="B684" t="s">
-        <v>1940</v>
+        <v>1941</v>
       </c>
       <c r="C684" t="s">
-        <v>1941</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.25">
@@ -15867,788 +15861,788 @@
         <v>1943</v>
       </c>
       <c r="C685" t="s">
-        <v>1397</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
-        <v>1944</v>
+        <v>1945</v>
       </c>
       <c r="B686" t="s">
-        <v>1945</v>
+        <v>1946</v>
       </c>
       <c r="C686" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="B687" t="s">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="C687" t="s">
-        <v>1949</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
-        <v>1950</v>
+        <v>1951</v>
       </c>
       <c r="B688" t="s">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="C688" t="s">
-        <v>1952</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
-        <v>1953</v>
+        <v>1954</v>
       </c>
       <c r="B689" t="s">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="C689" t="s">
-        <v>1955</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="B690" t="s">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="C690" t="s">
-        <v>1958</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="B691" t="s">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="C691" t="s">
-        <v>1961</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="B692" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="C692" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="B693" t="s">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="C693" t="s">
-        <v>1967</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="B694" t="s">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="C694" t="s">
-        <v>1970</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="695" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="B695" t="s">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="C695" t="s">
-        <v>1973</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="B696" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="C696" t="s">
-        <v>1976</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="B697" t="s">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="C697" t="s">
-        <v>1979</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="B698" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="C698" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="B699" t="s">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="C699" t="s">
-        <v>1985</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="B700" t="s">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="C700" t="s">
-        <v>1988</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="701" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="B701" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="C701" t="s">
-        <v>1991</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="B702" t="s">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="C702" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="703" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="B703" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="C703" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="B704" t="s">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="C704" t="s">
-        <v>2000</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="705" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B705" t="s">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="C705" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B706" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="C706" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B707" t="s">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="C707" t="s">
-        <v>2009</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="708" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B708" t="s">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C708" t="s">
-        <v>2012</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B709" t="s">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C709" t="s">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B710" t="s">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C710" t="s">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B711" t="s">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C711" t="s">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B712" t="s">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C712" t="s">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="713" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B713" t="s">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="C713" t="s">
-        <v>2027</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="B714" t="s">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="C714" t="s">
-        <v>2030</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="B715" t="s">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="C715" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="B716" t="s">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="C716" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="B717" t="s">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="C717" t="s">
-        <v>2039</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="B718" t="s">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="C718" t="s">
-        <v>2042</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="B719" t="s">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="C719" t="s">
-        <v>2045</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="B720" t="s">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="C720" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="721" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B721" t="s">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="C721" t="s">
-        <v>2051</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="722" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
-        <v>2052</v>
+        <v>2053</v>
       </c>
       <c r="B722" t="s">
-        <v>2053</v>
+        <v>2054</v>
       </c>
       <c r="C722" t="s">
-        <v>2054</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="723" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
-        <v>2055</v>
+        <v>2056</v>
       </c>
       <c r="B723" t="s">
-        <v>2056</v>
+        <v>2057</v>
       </c>
       <c r="C723" t="s">
-        <v>2057</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="724" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
-        <v>2058</v>
+        <v>2059</v>
       </c>
       <c r="B724" t="s">
-        <v>2059</v>
+        <v>2060</v>
       </c>
       <c r="C724" t="s">
-        <v>2060</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="725" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
-        <v>2061</v>
+        <v>2062</v>
       </c>
       <c r="B725" t="s">
-        <v>2062</v>
+        <v>2063</v>
       </c>
       <c r="C725" t="s">
-        <v>2063</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="726" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
-        <v>2064</v>
+        <v>2065</v>
       </c>
       <c r="B726" t="s">
-        <v>2065</v>
+        <v>2066</v>
       </c>
       <c r="C726" t="s">
-        <v>2066</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="727" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
-        <v>2067</v>
+        <v>2068</v>
       </c>
       <c r="B727" t="s">
-        <v>2068</v>
+        <v>2069</v>
       </c>
       <c r="C727" t="s">
-        <v>2069</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="728" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
-        <v>2070</v>
+        <v>2071</v>
       </c>
       <c r="B728" t="s">
-        <v>2071</v>
+        <v>2072</v>
       </c>
       <c r="C728" t="s">
-        <v>2072</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="729" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
-        <v>2073</v>
+        <v>2074</v>
       </c>
       <c r="B729" t="s">
-        <v>2074</v>
+        <v>2075</v>
       </c>
       <c r="C729" t="s">
-        <v>2075</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="730" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
-        <v>2076</v>
+        <v>2077</v>
       </c>
       <c r="B730" t="s">
-        <v>2077</v>
+        <v>2078</v>
       </c>
       <c r="C730" t="s">
-        <v>2078</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="731" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
-        <v>2079</v>
+        <v>2080</v>
       </c>
       <c r="B731" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="C731" t="s">
-        <v>2081</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="732" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
-        <v>2082</v>
+        <v>2083</v>
       </c>
       <c r="B732" t="s">
-        <v>2083</v>
+        <v>2084</v>
       </c>
       <c r="C732" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="733" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
-        <v>2085</v>
+        <v>2086</v>
       </c>
       <c r="B733" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="C733" t="s">
-        <v>2087</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="734" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
-        <v>2088</v>
+        <v>2089</v>
       </c>
       <c r="B734" t="s">
-        <v>2089</v>
+        <v>2090</v>
       </c>
       <c r="C734" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="735" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
-        <v>2091</v>
+        <v>2092</v>
       </c>
       <c r="B735" t="s">
-        <v>2092</v>
+        <v>2093</v>
       </c>
       <c r="C735" t="s">
-        <v>2093</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="736" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="B736" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="C736" t="s">
-        <v>2096</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="737" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
-        <v>2097</v>
+        <v>2098</v>
       </c>
       <c r="B737" t="s">
-        <v>2098</v>
+        <v>2099</v>
       </c>
       <c r="C737" t="s">
-        <v>2099</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="738" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
-        <v>2100</v>
+        <v>2101</v>
       </c>
       <c r="B738" t="s">
-        <v>2101</v>
+        <v>2102</v>
       </c>
       <c r="C738" t="s">
-        <v>2102</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="739" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
-        <v>2103</v>
+        <v>2104</v>
       </c>
       <c r="B739" t="s">
-        <v>2104</v>
+        <v>2105</v>
       </c>
       <c r="C739" t="s">
-        <v>2105</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="740" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
-        <v>2106</v>
+        <v>2107</v>
       </c>
       <c r="B740" t="s">
-        <v>2107</v>
+        <v>2108</v>
       </c>
       <c r="C740" t="s">
-        <v>2108</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="741" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
-        <v>2109</v>
+        <v>2110</v>
       </c>
       <c r="B741" t="s">
-        <v>2110</v>
+        <v>2111</v>
       </c>
       <c r="C741" t="s">
-        <v>2111</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="742" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
-        <v>2112</v>
+        <v>2113</v>
       </c>
       <c r="B742" t="s">
-        <v>2113</v>
+        <v>2114</v>
       </c>
       <c r="C742" t="s">
-        <v>2114</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="743" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="B743" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="C743" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="744" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="B744" t="s">
-        <v>2119</v>
+        <v>2120</v>
       </c>
       <c r="C744" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="745" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
-        <v>2121</v>
+        <v>2122</v>
       </c>
       <c r="B745" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="C745" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="746" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
-        <v>2124</v>
+        <v>2125</v>
       </c>
       <c r="B746" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="C746" t="s">
-        <v>2126</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="747" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
       <c r="B747" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="C747" t="s">
-        <v>2129</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="748" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="B748" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
       <c r="C748" t="s">
-        <v>2132</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="749" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
-        <v>2133</v>
+        <v>2134</v>
       </c>
       <c r="B749" t="s">
-        <v>2134</v>
+        <v>2135</v>
       </c>
       <c r="C749" t="s">
-        <v>2135</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="750" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
-        <v>2136</v>
+        <v>2137</v>
       </c>
       <c r="B750" t="s">
-        <v>2137</v>
+        <v>2138</v>
       </c>
       <c r="C750" t="s">
-        <v>2138</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="751" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
-        <v>2139</v>
+        <v>2140</v>
       </c>
       <c r="B751" t="s">
-        <v>2140</v>
+        <v>2141</v>
       </c>
       <c r="C751" t="s">
-        <v>2141</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="752" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
-        <v>2142</v>
+        <v>2143</v>
       </c>
       <c r="B752" t="s">
-        <v>2143</v>
+        <v>2144</v>
       </c>
       <c r="C752" t="s">
-        <v>2144</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="753" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
-        <v>2145</v>
+        <v>2146</v>
       </c>
       <c r="B753" t="s">
-        <v>2146</v>
+        <v>2147</v>
       </c>
       <c r="C753" t="s">
-        <v>2147</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="754" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="B754" t="s">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="C754" t="s">
-        <v>2150</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="755" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
-        <v>2151</v>
+        <v>2152</v>
       </c>
       <c r="B755" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C755" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="756" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="B756" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="C756" t="s">
-        <v>2156</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="757" spans="1:3" x14ac:dyDescent="0.25">
@@ -16659,84 +16653,84 @@
         <v>2158</v>
       </c>
       <c r="C757" t="s">
-        <v>1345</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="758" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="B758" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="C758" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="759" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="B759" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="C759" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="760" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="B760" t="s">
-        <v>2166</v>
+        <v>2167</v>
       </c>
       <c r="C760" t="s">
-        <v>2167</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="761" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
-        <v>2168</v>
+        <v>2169</v>
       </c>
       <c r="B761" t="s">
-        <v>2169</v>
+        <v>2170</v>
       </c>
       <c r="C761" t="s">
-        <v>2170</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="762" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
-        <v>2171</v>
+        <v>2172</v>
       </c>
       <c r="B762" t="s">
-        <v>2172</v>
+        <v>2173</v>
       </c>
       <c r="C762" t="s">
-        <v>2173</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="763" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
-        <v>2174</v>
+        <v>2175</v>
       </c>
       <c r="B763" t="s">
-        <v>2175</v>
+        <v>2176</v>
       </c>
       <c r="C763" t="s">
-        <v>2176</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="764" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="B764" t="s">
-        <v>2178</v>
+        <v>2179</v>
       </c>
       <c r="C764" t="s">
-        <v>2179</v>
+        <v>294</v>
       </c>
     </row>
     <row r="765" spans="1:3" x14ac:dyDescent="0.25">
@@ -16747,29 +16741,29 @@
         <v>2181</v>
       </c>
       <c r="C765" t="s">
-        <v>294</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="766" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
-        <v>2182</v>
+        <v>2183</v>
       </c>
       <c r="B766" t="s">
-        <v>2183</v>
+        <v>2184</v>
       </c>
       <c r="C766" t="s">
-        <v>2184</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="767" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="B767" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="C767" t="s">
-        <v>2187</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="768" spans="1:3" x14ac:dyDescent="0.25">
@@ -16780,128 +16774,128 @@
         <v>2189</v>
       </c>
       <c r="C768" t="s">
-        <v>1530</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="769" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
-        <v>2190</v>
+        <v>2191</v>
       </c>
       <c r="B769" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
       <c r="C769" t="s">
-        <v>2192</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="770" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
-        <v>2193</v>
+        <v>2194</v>
       </c>
       <c r="B770" t="s">
-        <v>2194</v>
+        <v>2195</v>
       </c>
       <c r="C770" t="s">
-        <v>2195</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="771" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
-        <v>2196</v>
+        <v>2197</v>
       </c>
       <c r="B771" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="C771" t="s">
-        <v>2198</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="772" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
-        <v>2199</v>
+        <v>2200</v>
       </c>
       <c r="B772" t="s">
-        <v>2200</v>
+        <v>2201</v>
       </c>
       <c r="C772" t="s">
-        <v>2201</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="773" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
-        <v>2202</v>
+        <v>2203</v>
       </c>
       <c r="B773" t="s">
-        <v>2203</v>
+        <v>2204</v>
       </c>
       <c r="C773" t="s">
-        <v>2204</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="774" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
-        <v>2205</v>
+        <v>2206</v>
       </c>
       <c r="B774" t="s">
-        <v>2206</v>
+        <v>2207</v>
       </c>
       <c r="C774" t="s">
-        <v>2207</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="775" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
-        <v>2208</v>
+        <v>2209</v>
       </c>
       <c r="B775" t="s">
-        <v>2209</v>
+        <v>2210</v>
       </c>
       <c r="C775" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="776" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
-        <v>2211</v>
+        <v>2212</v>
       </c>
       <c r="B776" t="s">
-        <v>2212</v>
+        <v>2213</v>
       </c>
       <c r="C776" t="s">
-        <v>2213</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="777" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
-        <v>2214</v>
+        <v>2215</v>
       </c>
       <c r="B777" t="s">
-        <v>2215</v>
+        <v>2216</v>
       </c>
       <c r="C777" t="s">
-        <v>2216</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="778" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
-        <v>2217</v>
+        <v>2218</v>
       </c>
       <c r="B778" t="s">
-        <v>2218</v>
+        <v>2219</v>
       </c>
       <c r="C778" t="s">
-        <v>2219</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="779" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
-        <v>2220</v>
+        <v>2221</v>
       </c>
       <c r="B779" t="s">
-        <v>2221</v>
+        <v>2222</v>
       </c>
       <c r="C779" t="s">
-        <v>2222</v>
+        <v>500</v>
       </c>
     </row>
     <row r="780" spans="1:3" x14ac:dyDescent="0.25">
@@ -16912,887 +16906,887 @@
         <v>2224</v>
       </c>
       <c r="C780" t="s">
-        <v>500</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="781" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
-        <v>2225</v>
+        <v>2226</v>
       </c>
       <c r="B781" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="C781" t="s">
-        <v>2227</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="782" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
-        <v>2228</v>
+        <v>2229</v>
       </c>
       <c r="B782" t="s">
-        <v>2229</v>
+        <v>2230</v>
       </c>
       <c r="C782" t="s">
-        <v>2230</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="783" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
-        <v>2231</v>
+        <v>2232</v>
       </c>
       <c r="B783" t="s">
-        <v>2232</v>
+        <v>2233</v>
       </c>
       <c r="C783" t="s">
-        <v>2233</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="784" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
-        <v>2234</v>
+        <v>2235</v>
       </c>
       <c r="B784" t="s">
-        <v>2235</v>
+        <v>2236</v>
       </c>
       <c r="C784" t="s">
-        <v>2236</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="785" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
-        <v>2237</v>
+        <v>2238</v>
       </c>
       <c r="B785" t="s">
-        <v>2238</v>
+        <v>2239</v>
       </c>
       <c r="C785" t="s">
-        <v>2239</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="786" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
-        <v>2240</v>
+        <v>2241</v>
       </c>
       <c r="B786" t="s">
-        <v>2241</v>
+        <v>2242</v>
       </c>
       <c r="C786" t="s">
-        <v>2242</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="787" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
-        <v>2243</v>
+        <v>2244</v>
       </c>
       <c r="B787" t="s">
-        <v>2244</v>
+        <v>2245</v>
       </c>
       <c r="C787" t="s">
-        <v>2245</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="788" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
-        <v>2246</v>
+        <v>2247</v>
       </c>
       <c r="B788" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="C788" t="s">
-        <v>2248</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="789" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
-        <v>2249</v>
+        <v>2250</v>
       </c>
       <c r="B789" t="s">
-        <v>2250</v>
+        <v>2251</v>
       </c>
       <c r="C789" t="s">
-        <v>2251</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="790" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
-        <v>2252</v>
+        <v>2253</v>
       </c>
       <c r="B790" t="s">
-        <v>2253</v>
+        <v>2254</v>
       </c>
       <c r="C790" t="s">
-        <v>2254</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="791" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
-        <v>2255</v>
+        <v>2256</v>
       </c>
       <c r="B791" t="s">
-        <v>2256</v>
+        <v>2257</v>
       </c>
       <c r="C791" t="s">
-        <v>2257</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="792" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
-        <v>2258</v>
+        <v>2259</v>
       </c>
       <c r="B792" t="s">
-        <v>2259</v>
+        <v>2260</v>
       </c>
       <c r="C792" t="s">
-        <v>2260</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="793" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
-        <v>2261</v>
+        <v>2262</v>
       </c>
       <c r="B793" t="s">
-        <v>2262</v>
+        <v>2263</v>
       </c>
       <c r="C793" t="s">
-        <v>2263</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="794" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
-        <v>2264</v>
+        <v>2265</v>
       </c>
       <c r="B794" t="s">
-        <v>2265</v>
+        <v>2266</v>
       </c>
       <c r="C794" t="s">
-        <v>2266</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="795" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
-        <v>2267</v>
+        <v>2268</v>
       </c>
       <c r="B795" t="s">
-        <v>2268</v>
+        <v>2269</v>
       </c>
       <c r="C795" t="s">
-        <v>2269</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="796" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
-        <v>2270</v>
+        <v>2271</v>
       </c>
       <c r="B796" t="s">
-        <v>2271</v>
+        <v>2272</v>
       </c>
       <c r="C796" t="s">
-        <v>2272</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="797" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
-        <v>2273</v>
+        <v>2274</v>
       </c>
       <c r="B797" t="s">
-        <v>2274</v>
+        <v>2275</v>
       </c>
       <c r="C797" t="s">
-        <v>2275</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="798" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A798" t="s">
-        <v>2276</v>
+        <v>2277</v>
       </c>
       <c r="B798" t="s">
-        <v>2277</v>
+        <v>2278</v>
       </c>
       <c r="C798" t="s">
-        <v>2278</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="799" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A799" t="s">
-        <v>2279</v>
+        <v>2280</v>
       </c>
       <c r="B799" t="s">
-        <v>2280</v>
+        <v>2281</v>
       </c>
       <c r="C799" t="s">
-        <v>2281</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="800" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A800" t="s">
-        <v>2282</v>
+        <v>2283</v>
       </c>
       <c r="B800" t="s">
-        <v>2283</v>
+        <v>2284</v>
       </c>
       <c r="C800" t="s">
-        <v>2284</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="801" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A801" t="s">
-        <v>2285</v>
+        <v>2286</v>
       </c>
       <c r="B801" t="s">
-        <v>2286</v>
+        <v>2287</v>
       </c>
       <c r="C801" t="s">
-        <v>2287</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="802" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A802" t="s">
-        <v>2288</v>
+        <v>2289</v>
       </c>
       <c r="B802" t="s">
-        <v>2289</v>
+        <v>2290</v>
       </c>
       <c r="C802" t="s">
-        <v>2290</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="803" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A803" t="s">
-        <v>2291</v>
+        <v>2292</v>
       </c>
       <c r="B803" t="s">
-        <v>2292</v>
+        <v>2293</v>
       </c>
       <c r="C803" t="s">
-        <v>2293</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="804" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A804" t="s">
-        <v>2294</v>
+        <v>2295</v>
       </c>
       <c r="B804" t="s">
-        <v>2295</v>
+        <v>2296</v>
       </c>
       <c r="C804" t="s">
-        <v>2296</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="805" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A805" t="s">
-        <v>2297</v>
+        <v>2298</v>
       </c>
       <c r="B805" t="s">
-        <v>2298</v>
+        <v>2299</v>
       </c>
       <c r="C805" t="s">
-        <v>2299</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="806" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A806" t="s">
-        <v>2300</v>
+        <v>2301</v>
       </c>
       <c r="B806" t="s">
-        <v>2301</v>
+        <v>2302</v>
       </c>
       <c r="C806" t="s">
-        <v>2302</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="807" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A807" t="s">
-        <v>2303</v>
+        <v>2304</v>
       </c>
       <c r="B807" t="s">
-        <v>2304</v>
+        <v>2305</v>
       </c>
       <c r="C807" t="s">
-        <v>2305</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="808" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A808" t="s">
-        <v>2306</v>
+        <v>2307</v>
       </c>
       <c r="B808" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="C808" t="s">
-        <v>2308</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="809" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A809" t="s">
-        <v>2309</v>
+        <v>2310</v>
       </c>
       <c r="B809" t="s">
-        <v>2310</v>
+        <v>2311</v>
       </c>
       <c r="C809" t="s">
-        <v>2311</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="810" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A810" t="s">
-        <v>2312</v>
+        <v>2313</v>
       </c>
       <c r="B810" t="s">
-        <v>2313</v>
+        <v>2314</v>
       </c>
       <c r="C810" t="s">
-        <v>2314</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="811" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A811" t="s">
-        <v>2315</v>
+        <v>2316</v>
       </c>
       <c r="B811" t="s">
-        <v>2316</v>
+        <v>2317</v>
       </c>
       <c r="C811" t="s">
-        <v>2317</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="812" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A812" t="s">
-        <v>2318</v>
+        <v>2319</v>
       </c>
       <c r="B812" t="s">
-        <v>2319</v>
+        <v>2320</v>
       </c>
       <c r="C812" t="s">
-        <v>2320</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="813" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A813" t="s">
-        <v>2321</v>
+        <v>2322</v>
       </c>
       <c r="B813" t="s">
-        <v>2322</v>
+        <v>2323</v>
       </c>
       <c r="C813" t="s">
-        <v>2323</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="814" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A814" t="s">
-        <v>2324</v>
+        <v>2325</v>
       </c>
       <c r="B814" t="s">
-        <v>2325</v>
+        <v>2326</v>
       </c>
       <c r="C814" t="s">
-        <v>2326</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="815" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A815" t="s">
-        <v>2327</v>
+        <v>2328</v>
       </c>
       <c r="B815" t="s">
-        <v>2328</v>
+        <v>2329</v>
       </c>
       <c r="C815" t="s">
-        <v>2329</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="816" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A816" t="s">
-        <v>2330</v>
+        <v>2331</v>
       </c>
       <c r="B816" t="s">
-        <v>2331</v>
+        <v>2332</v>
       </c>
       <c r="C816" t="s">
-        <v>2332</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="817" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A817" t="s">
-        <v>2333</v>
+        <v>2334</v>
       </c>
       <c r="B817" t="s">
-        <v>2334</v>
+        <v>2335</v>
       </c>
       <c r="C817" t="s">
-        <v>2335</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="818" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A818" t="s">
-        <v>2336</v>
+        <v>2337</v>
       </c>
       <c r="B818" t="s">
-        <v>2337</v>
+        <v>2338</v>
       </c>
       <c r="C818" t="s">
-        <v>2338</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="819" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A819" t="s">
-        <v>2339</v>
+        <v>2340</v>
       </c>
       <c r="B819" t="s">
-        <v>2340</v>
+        <v>2341</v>
       </c>
       <c r="C819" t="s">
-        <v>2341</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="820" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A820" t="s">
-        <v>2342</v>
+        <v>2343</v>
       </c>
       <c r="B820" t="s">
-        <v>2343</v>
+        <v>2344</v>
       </c>
       <c r="C820" t="s">
-        <v>2344</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="821" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A821" t="s">
-        <v>2345</v>
+        <v>2346</v>
       </c>
       <c r="B821" t="s">
-        <v>2346</v>
+        <v>2347</v>
       </c>
       <c r="C821" t="s">
-        <v>2347</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="822" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A822" t="s">
-        <v>2348</v>
+        <v>2349</v>
       </c>
       <c r="B822" t="s">
-        <v>2349</v>
+        <v>2350</v>
       </c>
       <c r="C822" t="s">
-        <v>2350</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="823" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A823" t="s">
-        <v>2351</v>
+        <v>2352</v>
       </c>
       <c r="B823" t="s">
-        <v>2352</v>
+        <v>2353</v>
       </c>
       <c r="C823" t="s">
-        <v>2353</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="824" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A824" t="s">
-        <v>2354</v>
+        <v>2355</v>
       </c>
       <c r="B824" t="s">
-        <v>2355</v>
+        <v>2356</v>
       </c>
       <c r="C824" t="s">
-        <v>2356</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="825" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A825" t="s">
-        <v>2357</v>
+        <v>2358</v>
       </c>
       <c r="B825" t="s">
-        <v>2358</v>
+        <v>2359</v>
       </c>
       <c r="C825" t="s">
-        <v>2359</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="826" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A826" t="s">
-        <v>2360</v>
+        <v>2361</v>
       </c>
       <c r="B826" t="s">
-        <v>2361</v>
+        <v>2362</v>
       </c>
       <c r="C826" t="s">
-        <v>2362</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="827" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A827" t="s">
-        <v>2363</v>
+        <v>2364</v>
       </c>
       <c r="B827" t="s">
-        <v>2364</v>
+        <v>2365</v>
       </c>
       <c r="C827" t="s">
-        <v>2365</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="828" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A828" t="s">
-        <v>2366</v>
+        <v>2367</v>
       </c>
       <c r="B828" t="s">
-        <v>2367</v>
+        <v>2368</v>
       </c>
       <c r="C828" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="829" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A829" t="s">
-        <v>2369</v>
+        <v>2370</v>
       </c>
       <c r="B829" t="s">
-        <v>2370</v>
+        <v>2371</v>
       </c>
       <c r="C829" t="s">
-        <v>2371</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="830" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A830" t="s">
-        <v>2372</v>
+        <v>2373</v>
       </c>
       <c r="B830" t="s">
-        <v>2373</v>
+        <v>2374</v>
       </c>
       <c r="C830" t="s">
-        <v>2374</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="831" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A831" t="s">
-        <v>2375</v>
+        <v>2376</v>
       </c>
       <c r="B831" t="s">
-        <v>2376</v>
+        <v>2377</v>
       </c>
       <c r="C831" t="s">
-        <v>2377</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="832" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A832" t="s">
-        <v>2378</v>
+        <v>2379</v>
       </c>
       <c r="B832" t="s">
-        <v>2379</v>
+        <v>2380</v>
       </c>
       <c r="C832" t="s">
-        <v>2380</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="833" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A833" t="s">
-        <v>2381</v>
+        <v>2382</v>
       </c>
       <c r="B833" t="s">
-        <v>2382</v>
+        <v>2383</v>
       </c>
       <c r="C833" t="s">
-        <v>2383</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="834" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A834" t="s">
-        <v>2384</v>
+        <v>2385</v>
       </c>
       <c r="B834" t="s">
-        <v>2385</v>
+        <v>2386</v>
       </c>
       <c r="C834" t="s">
-        <v>2386</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="835" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A835" t="s">
-        <v>2387</v>
+        <v>2388</v>
       </c>
       <c r="B835" t="s">
-        <v>2388</v>
+        <v>2389</v>
       </c>
       <c r="C835" t="s">
-        <v>2389</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="836" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A836" t="s">
-        <v>2390</v>
+        <v>2391</v>
       </c>
       <c r="B836" t="s">
-        <v>2391</v>
+        <v>2392</v>
       </c>
       <c r="C836" t="s">
-        <v>2392</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="837" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A837" t="s">
-        <v>2393</v>
+        <v>2394</v>
       </c>
       <c r="B837" t="s">
-        <v>2394</v>
+        <v>2395</v>
       </c>
       <c r="C837" t="s">
-        <v>2395</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="838" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A838" t="s">
-        <v>2396</v>
+        <v>2397</v>
       </c>
       <c r="B838" t="s">
-        <v>2397</v>
+        <v>2398</v>
       </c>
       <c r="C838" t="s">
-        <v>2398</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="839" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A839" t="s">
-        <v>2399</v>
+        <v>2400</v>
       </c>
       <c r="B839" t="s">
-        <v>2400</v>
+        <v>2401</v>
       </c>
       <c r="C839" t="s">
-        <v>2401</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="840" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A840" t="s">
-        <v>2402</v>
+        <v>2403</v>
       </c>
       <c r="B840" t="s">
-        <v>2403</v>
+        <v>2404</v>
       </c>
       <c r="C840" t="s">
-        <v>2404</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="841" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A841" t="s">
-        <v>2405</v>
+        <v>2406</v>
       </c>
       <c r="B841" t="s">
-        <v>2406</v>
+        <v>2407</v>
       </c>
       <c r="C841" t="s">
-        <v>2407</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="842" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A842" t="s">
-        <v>2408</v>
+        <v>2409</v>
       </c>
       <c r="B842" t="s">
-        <v>2409</v>
+        <v>2410</v>
       </c>
       <c r="C842" t="s">
-        <v>2410</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="843" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A843" t="s">
-        <v>2411</v>
+        <v>2412</v>
       </c>
       <c r="B843" t="s">
-        <v>2412</v>
+        <v>2413</v>
       </c>
       <c r="C843" t="s">
-        <v>2413</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="844" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A844" t="s">
-        <v>2414</v>
+        <v>2415</v>
       </c>
       <c r="B844" t="s">
-        <v>2415</v>
+        <v>2416</v>
       </c>
       <c r="C844" t="s">
-        <v>2416</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="845" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A845" t="s">
-        <v>2417</v>
+        <v>2418</v>
       </c>
       <c r="B845" t="s">
-        <v>2418</v>
+        <v>2419</v>
       </c>
       <c r="C845" t="s">
-        <v>2419</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="846" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A846" t="s">
-        <v>2420</v>
+        <v>2421</v>
       </c>
       <c r="B846" t="s">
-        <v>2421</v>
+        <v>2422</v>
       </c>
       <c r="C846" t="s">
-        <v>2422</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="847" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A847" t="s">
-        <v>2423</v>
+        <v>2424</v>
       </c>
       <c r="B847" t="s">
-        <v>2424</v>
+        <v>2425</v>
       </c>
       <c r="C847" t="s">
-        <v>2425</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="848" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A848" t="s">
-        <v>2426</v>
+        <v>2427</v>
       </c>
       <c r="B848" t="s">
-        <v>2427</v>
+        <v>2428</v>
       </c>
       <c r="C848" t="s">
-        <v>2428</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="849" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A849" t="s">
-        <v>2429</v>
+        <v>2430</v>
       </c>
       <c r="B849" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="C849" t="s">
-        <v>2431</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="850" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A850" t="s">
-        <v>2432</v>
+        <v>2433</v>
       </c>
       <c r="B850" t="s">
-        <v>2433</v>
+        <v>2434</v>
       </c>
       <c r="C850" t="s">
-        <v>2434</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="851" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A851" t="s">
-        <v>2435</v>
+        <v>2436</v>
       </c>
       <c r="B851" t="s">
-        <v>2436</v>
+        <v>2437</v>
       </c>
       <c r="C851" t="s">
-        <v>2437</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="852" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A852" t="s">
-        <v>2438</v>
+        <v>2439</v>
       </c>
       <c r="B852" t="s">
-        <v>2439</v>
+        <v>2440</v>
       </c>
       <c r="C852" t="s">
-        <v>2440</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="853" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A853" t="s">
-        <v>2441</v>
+        <v>2442</v>
       </c>
       <c r="B853" t="s">
-        <v>2442</v>
+        <v>2443</v>
       </c>
       <c r="C853" t="s">
-        <v>2443</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="854" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A854" t="s">
-        <v>2444</v>
+        <v>2445</v>
       </c>
       <c r="B854" t="s">
-        <v>2445</v>
+        <v>2446</v>
       </c>
       <c r="C854" t="s">
-        <v>2446</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="855" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A855" t="s">
-        <v>2447</v>
+        <v>2448</v>
       </c>
       <c r="B855" t="s">
-        <v>2448</v>
+        <v>2449</v>
       </c>
       <c r="C855" t="s">
-        <v>2449</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="856" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A856" t="s">
-        <v>2450</v>
+        <v>2451</v>
       </c>
       <c r="B856" t="s">
-        <v>2451</v>
+        <v>2452</v>
       </c>
       <c r="C856" t="s">
-        <v>2452</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="857" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A857" t="s">
-        <v>2453</v>
+        <v>2454</v>
       </c>
       <c r="B857" t="s">
-        <v>2454</v>
+        <v>2455</v>
       </c>
       <c r="C857" t="s">
-        <v>2455</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="858" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A858" t="s">
-        <v>2456</v>
+        <v>2457</v>
       </c>
       <c r="B858" t="s">
-        <v>2457</v>
+        <v>2458</v>
       </c>
       <c r="C858" t="s">
-        <v>2458</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="859" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A859" t="s">
-        <v>2459</v>
+        <v>2460</v>
       </c>
       <c r="B859" t="s">
-        <v>2460</v>
+        <v>2461</v>
       </c>
       <c r="C859" t="s">
-        <v>2461</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="860" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A860" t="s">
-        <v>2462</v>
+        <v>2463</v>
       </c>
       <c r="B860" t="s">
-        <v>2463</v>
+        <v>2464</v>
       </c>
       <c r="C860" t="s">
-        <v>2464</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="861" spans="1:3" x14ac:dyDescent="0.25">
@@ -17803,601 +17797,590 @@
         <v>2466</v>
       </c>
       <c r="C861" t="s">
-        <v>2449</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="862" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A862" t="s">
-        <v>2467</v>
+        <v>2468</v>
       </c>
       <c r="B862" t="s">
-        <v>2468</v>
+        <v>2469</v>
       </c>
       <c r="C862" t="s">
-        <v>2469</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="863" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A863" t="s">
-        <v>2470</v>
+        <v>2471</v>
       </c>
       <c r="B863" t="s">
-        <v>2471</v>
+        <v>2472</v>
       </c>
       <c r="C863" t="s">
-        <v>2472</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="864" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A864" t="s">
-        <v>2473</v>
+        <v>2474</v>
       </c>
       <c r="B864" t="s">
-        <v>2474</v>
+        <v>2475</v>
       </c>
       <c r="C864" t="s">
-        <v>2475</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="865" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A865" t="s">
-        <v>2476</v>
+        <v>2477</v>
       </c>
       <c r="B865" t="s">
-        <v>2477</v>
+        <v>2478</v>
       </c>
       <c r="C865" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="866" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A866" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
       <c r="B866" t="s">
-        <v>2480</v>
+        <v>2481</v>
       </c>
       <c r="C866" t="s">
-        <v>2481</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="867" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A867" t="s">
-        <v>2482</v>
+        <v>2483</v>
       </c>
       <c r="B867" t="s">
-        <v>2483</v>
+        <v>2484</v>
       </c>
       <c r="C867" t="s">
-        <v>2484</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="868" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A868" t="s">
-        <v>2485</v>
+        <v>2486</v>
       </c>
       <c r="B868" t="s">
-        <v>2486</v>
+        <v>2487</v>
       </c>
       <c r="C868" t="s">
-        <v>2487</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="869" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A869" t="s">
-        <v>2488</v>
+        <v>2489</v>
       </c>
       <c r="B869" t="s">
-        <v>2489</v>
+        <v>2490</v>
       </c>
       <c r="C869" t="s">
-        <v>2490</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="870" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A870" t="s">
-        <v>2491</v>
+        <v>2492</v>
       </c>
       <c r="B870" t="s">
-        <v>2492</v>
+        <v>2493</v>
       </c>
       <c r="C870" t="s">
-        <v>2493</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="871" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A871" t="s">
-        <v>2494</v>
+        <v>2495</v>
       </c>
       <c r="B871" t="s">
-        <v>2495</v>
+        <v>2496</v>
       </c>
       <c r="C871" t="s">
-        <v>2496</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="872" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A872" t="s">
-        <v>2497</v>
+        <v>2498</v>
       </c>
       <c r="B872" t="s">
-        <v>2498</v>
+        <v>2499</v>
       </c>
       <c r="C872" t="s">
-        <v>2499</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="873" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A873" t="s">
-        <v>2500</v>
+        <v>2501</v>
       </c>
       <c r="B873" t="s">
-        <v>2501</v>
+        <v>2502</v>
       </c>
       <c r="C873" t="s">
-        <v>2502</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="874" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A874" t="s">
-        <v>2503</v>
+        <v>2504</v>
       </c>
       <c r="B874" t="s">
-        <v>2504</v>
+        <v>2505</v>
       </c>
       <c r="C874" t="s">
-        <v>2505</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="875" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A875" t="s">
-        <v>2506</v>
+        <v>2507</v>
       </c>
       <c r="B875" t="s">
-        <v>2507</v>
+        <v>2508</v>
       </c>
       <c r="C875" t="s">
-        <v>2508</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="876" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A876" t="s">
-        <v>2509</v>
+        <v>2510</v>
       </c>
       <c r="B876" t="s">
-        <v>2510</v>
+        <v>2511</v>
       </c>
       <c r="C876" t="s">
-        <v>2511</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="877" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A877" t="s">
-        <v>2512</v>
+        <v>2513</v>
       </c>
       <c r="B877" t="s">
-        <v>2513</v>
+        <v>2514</v>
       </c>
       <c r="C877" t="s">
-        <v>2514</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="878" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A878" t="s">
-        <v>2515</v>
+        <v>2516</v>
       </c>
       <c r="B878" t="s">
-        <v>2516</v>
+        <v>2517</v>
       </c>
       <c r="C878" t="s">
-        <v>2517</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="879" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A879" t="s">
-        <v>2518</v>
+        <v>2519</v>
       </c>
       <c r="B879" t="s">
-        <v>2519</v>
+        <v>2520</v>
       </c>
       <c r="C879" t="s">
-        <v>2520</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="880" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A880" t="s">
-        <v>2521</v>
+        <v>2522</v>
       </c>
       <c r="B880" t="s">
-        <v>2522</v>
+        <v>2523</v>
       </c>
       <c r="C880" t="s">
-        <v>2523</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="881" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A881" t="s">
-        <v>2524</v>
+        <v>2525</v>
       </c>
       <c r="B881" t="s">
-        <v>2525</v>
+        <v>2526</v>
       </c>
       <c r="C881" t="s">
-        <v>2526</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="882" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A882" t="s">
-        <v>2527</v>
+        <v>2528</v>
       </c>
       <c r="B882" t="s">
-        <v>2528</v>
+        <v>2529</v>
       </c>
       <c r="C882" t="s">
-        <v>2529</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="883" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A883" t="s">
-        <v>2530</v>
+        <v>2531</v>
       </c>
       <c r="B883" t="s">
-        <v>2531</v>
+        <v>2532</v>
       </c>
       <c r="C883" t="s">
-        <v>2532</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="884" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A884" t="s">
-        <v>2533</v>
+        <v>2534</v>
       </c>
       <c r="B884" t="s">
-        <v>2534</v>
+        <v>2535</v>
       </c>
       <c r="C884" t="s">
-        <v>2535</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="885" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A885" t="s">
-        <v>2536</v>
+        <v>2537</v>
       </c>
       <c r="B885" t="s">
-        <v>2537</v>
+        <v>2538</v>
       </c>
       <c r="C885" t="s">
-        <v>2538</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="886" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A886" t="s">
-        <v>2539</v>
+        <v>2540</v>
       </c>
       <c r="B886" t="s">
-        <v>2540</v>
+        <v>2541</v>
       </c>
       <c r="C886" t="s">
-        <v>2541</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="887" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A887" t="s">
-        <v>2542</v>
+        <v>2543</v>
       </c>
       <c r="B887" t="s">
-        <v>2543</v>
+        <v>2544</v>
       </c>
       <c r="C887" t="s">
-        <v>2544</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="888" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A888" t="s">
-        <v>2545</v>
+        <v>2546</v>
       </c>
       <c r="B888" t="s">
-        <v>2546</v>
+        <v>2547</v>
       </c>
       <c r="C888" t="s">
-        <v>2547</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="889" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A889" t="s">
-        <v>2548</v>
+        <v>2549</v>
       </c>
       <c r="B889" t="s">
-        <v>2549</v>
+        <v>2550</v>
       </c>
       <c r="C889" t="s">
-        <v>2550</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="890" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A890" t="s">
-        <v>2551</v>
+        <v>2552</v>
       </c>
       <c r="B890" t="s">
-        <v>2552</v>
+        <v>2553</v>
       </c>
       <c r="C890" t="s">
-        <v>2553</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="891" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A891" t="s">
-        <v>2554</v>
+        <v>2555</v>
       </c>
       <c r="B891" t="s">
-        <v>2555</v>
+        <v>2556</v>
       </c>
       <c r="C891" t="s">
-        <v>2556</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="892" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A892" t="s">
-        <v>2557</v>
+        <v>2558</v>
       </c>
       <c r="B892" t="s">
-        <v>2558</v>
+        <v>2559</v>
       </c>
       <c r="C892" t="s">
-        <v>2559</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="893" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A893" t="s">
-        <v>2560</v>
+        <v>2561</v>
       </c>
       <c r="B893" t="s">
-        <v>2561</v>
+        <v>2562</v>
       </c>
       <c r="C893" t="s">
-        <v>2562</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="894" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A894" t="s">
-        <v>2563</v>
+        <v>2564</v>
       </c>
       <c r="B894" t="s">
-        <v>2564</v>
+        <v>2565</v>
       </c>
       <c r="C894" t="s">
-        <v>2565</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="895" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A895" t="s">
-        <v>2566</v>
+        <v>2567</v>
       </c>
       <c r="B895" t="s">
-        <v>2567</v>
+        <v>2568</v>
       </c>
       <c r="C895" t="s">
-        <v>2568</v>
+        <v>2569</v>
       </c>
     </row>
     <row r="896" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A896" t="s">
-        <v>2569</v>
+        <v>2570</v>
       </c>
       <c r="B896" t="s">
-        <v>2570</v>
+        <v>2571</v>
       </c>
       <c r="C896" t="s">
-        <v>2571</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="897" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A897" t="s">
-        <v>2572</v>
+        <v>2573</v>
       </c>
       <c r="B897" t="s">
-        <v>2573</v>
+        <v>2574</v>
       </c>
       <c r="C897" t="s">
-        <v>2574</v>
+        <v>2575</v>
       </c>
     </row>
     <row r="898" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A898" t="s">
-        <v>2575</v>
+        <v>2576</v>
       </c>
       <c r="B898" t="s">
-        <v>2576</v>
+        <v>2577</v>
       </c>
       <c r="C898" t="s">
-        <v>2577</v>
+        <v>2578</v>
       </c>
     </row>
     <row r="899" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A899" t="s">
-        <v>2578</v>
+        <v>2579</v>
       </c>
       <c r="B899" t="s">
-        <v>2579</v>
+        <v>2580</v>
       </c>
       <c r="C899" t="s">
-        <v>2580</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="900" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A900" t="s">
-        <v>2581</v>
+        <v>2582</v>
       </c>
       <c r="B900" t="s">
-        <v>2582</v>
+        <v>2583</v>
       </c>
       <c r="C900" t="s">
-        <v>2583</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="901" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A901" t="s">
-        <v>2584</v>
+        <v>2585</v>
       </c>
       <c r="B901" t="s">
-        <v>2585</v>
+        <v>2586</v>
       </c>
       <c r="C901" t="s">
-        <v>2586</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="902" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A902" t="s">
-        <v>2587</v>
+        <v>2588</v>
       </c>
       <c r="B902" t="s">
-        <v>2588</v>
+        <v>2589</v>
       </c>
       <c r="C902" t="s">
-        <v>2589</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="903" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A903" t="s">
-        <v>2590</v>
+        <v>2591</v>
       </c>
       <c r="B903" t="s">
-        <v>2591</v>
+        <v>2592</v>
       </c>
       <c r="C903" t="s">
-        <v>2592</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="904" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A904" t="s">
-        <v>2593</v>
+        <v>2594</v>
       </c>
       <c r="B904" t="s">
-        <v>2594</v>
+        <v>2595</v>
       </c>
       <c r="C904" t="s">
-        <v>2595</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="905" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A905" t="s">
-        <v>2596</v>
+        <v>2597</v>
       </c>
       <c r="B905" t="s">
-        <v>2597</v>
+        <v>2598</v>
       </c>
       <c r="C905" t="s">
-        <v>2598</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="906" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A906" t="s">
-        <v>2599</v>
+        <v>2600</v>
       </c>
       <c r="B906" t="s">
-        <v>2600</v>
+        <v>2601</v>
       </c>
       <c r="C906" t="s">
-        <v>2601</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="907" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A907" t="s">
-        <v>2602</v>
+        <v>2603</v>
       </c>
       <c r="B907" t="s">
-        <v>2603</v>
+        <v>2604</v>
       </c>
       <c r="C907" t="s">
-        <v>2604</v>
+        <v>2605</v>
       </c>
     </row>
     <row r="908" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A908" t="s">
-        <v>2605</v>
+        <v>2606</v>
       </c>
       <c r="B908" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
       <c r="C908" t="s">
-        <v>2607</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="909" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A909" t="s">
-        <v>2608</v>
+        <v>2609</v>
       </c>
       <c r="B909" t="s">
-        <v>2609</v>
+        <v>2610</v>
       </c>
       <c r="C909" t="s">
-        <v>2610</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="910" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A910" t="s">
-        <v>2611</v>
+        <v>2612</v>
       </c>
       <c r="B910" t="s">
-        <v>2612</v>
+        <v>2613</v>
       </c>
       <c r="C910" t="s">
-        <v>2613</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="911" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A911" t="s">
-        <v>2614</v>
+        <v>2615</v>
       </c>
       <c r="B911" t="s">
-        <v>2615</v>
+        <v>2616</v>
       </c>
       <c r="C911" t="s">
-        <v>2616</v>
+        <v>2617</v>
       </c>
     </row>
     <row r="912" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A912" t="s">
-        <v>2617</v>
+        <v>2618</v>
       </c>
       <c r="B912" t="s">
-        <v>2618</v>
+        <v>2619</v>
       </c>
       <c r="C912" t="s">
-        <v>2619</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="913" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A913" t="s">
-        <v>2620</v>
+        <v>2621</v>
       </c>
       <c r="B913" t="s">
-        <v>2621</v>
+        <v>2622</v>
       </c>
       <c r="C913" t="s">
-        <v>2622</v>
+        <v>2623</v>
       </c>
     </row>
     <row r="914" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A914" t="s">
-        <v>2623</v>
+        <v>2624</v>
       </c>
       <c r="B914" t="s">
-        <v>2624</v>
+        <v>2625</v>
       </c>
       <c r="C914" t="s">
-        <v>2625</v>
-      </c>
-    </row>
-    <row r="915" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A915" t="s">
         <v>2626</v>
-      </c>
-      <c r="B915" t="s">
-        <v>2627</v>
-      </c>
-      <c r="C915" t="s">
-        <v>2628</v>
       </c>
     </row>
   </sheetData>

--- a/add-in-ids/add-ins-using-exchange-tokens.xlsx
+++ b/add-in-ids/add-ins-using-exchange-tokens.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB031348-F088-4EA8-8002-58C2D4A3CF0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C71497-A64B-4E37-AA78-608A70459B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="735" windowWidth="18615" windowHeight="14130" xr2:uid="{8FF931F1-CAD9-4954-9038-88E82260DB46}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{8FF931F1-CAD9-4954-9038-88E82260DB46}"/>
   </bookViews>
   <sheets>
     <sheet name="Add-ins list" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2738" uniqueCount="2628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2735" uniqueCount="2625">
   <si>
     <t>AssetID</t>
   </si>
@@ -1195,15 +1195,6 @@
   </si>
   <si>
     <t>simPRO</t>
-  </si>
-  <si>
-    <t>wa104381158</t>
-  </si>
-  <si>
-    <t>5DE11285-4132-4ADD-A025-EB72EB16BC84</t>
-  </si>
-  <si>
-    <t>Adobe Acrobat Sign</t>
   </si>
   <si>
     <t>wa104381160</t>
@@ -7999,8 +7990,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD6B8178-56C6-442C-A6BF-7C2D1F869861}" name="Table1" displayName="Table1" ref="A1:C914" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:C914" xr:uid="{CD6B8178-56C6-442C-A6BF-7C2D1F869861}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD6B8178-56C6-442C-A6BF-7C2D1F869861}" name="Table1" displayName="Table1" ref="A1:C913" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:C913" xr:uid="{CD6B8178-56C6-442C-A6BF-7C2D1F869861}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{39B649A1-0CDF-46AA-A276-6F4F89255D96}" name="AssetID"/>
     <tableColumn id="2" xr3:uid="{C79A1EFF-47FF-488B-A562-E9848648C952}" name="AppId"/>
@@ -8327,10 +8318,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3293B4AA-89CE-4E6A-9112-DA5B905DDA88}">
-  <dimension ref="A1:C914"/>
+  <dimension ref="A1:C913"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A469" workbookViewId="0">
-      <selection activeCell="A483" sqref="A483:XFD483"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="A132" sqref="A132:XFD132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8346,7 +8337,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2627</v>
+        <v>2624</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -10104,7 +10095,7 @@
       <c r="A162" t="s">
         <v>478</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B162" s="1" t="s">
         <v>479</v>
       </c>
       <c r="C162" t="s">
@@ -10115,7 +10106,7 @@
       <c r="A163" t="s">
         <v>481</v>
       </c>
-      <c r="B163" s="1" t="s">
+      <c r="B163" t="s">
         <v>482</v>
       </c>
       <c r="C163" t="s">
@@ -10163,18 +10154,18 @@
         <v>494</v>
       </c>
       <c r="C167" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
+        <v>495</v>
+      </c>
+      <c r="B168" t="s">
         <v>496</v>
       </c>
-      <c r="B168" t="s">
+      <c r="C168" t="s">
         <v>497</v>
-      </c>
-      <c r="C168" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -10809,18 +10800,18 @@
         <v>669</v>
       </c>
       <c r="B226" t="s">
+        <v>446</v>
+      </c>
+      <c r="C226" t="s">
         <v>670</v>
-      </c>
-      <c r="C226" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
+        <v>671</v>
+      </c>
+      <c r="B227" t="s">
         <v>672</v>
-      </c>
-      <c r="B227" t="s">
-        <v>449</v>
       </c>
       <c r="C227" t="s">
         <v>673</v>
@@ -11414,15 +11405,15 @@
         <v>833</v>
       </c>
       <c r="B281" t="s">
-        <v>834</v>
+        <v>281</v>
       </c>
       <c r="C281" t="s">
-        <v>835</v>
+        <v>282</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B282" t="s">
         <v>281</v>
@@ -11433,7 +11424,7 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B283" t="s">
         <v>281</v>
@@ -11444,7 +11435,7 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B284" t="s">
         <v>281</v>
@@ -11455,7 +11446,7 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B285" t="s">
         <v>281</v>
@@ -11466,7 +11457,7 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B286" t="s">
         <v>281</v>
@@ -11477,13 +11468,13 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
+        <v>839</v>
+      </c>
+      <c r="B287" t="s">
+        <v>840</v>
+      </c>
+      <c r="C287" t="s">
         <v>841</v>
-      </c>
-      <c r="B287" t="s">
-        <v>281</v>
-      </c>
-      <c r="C287" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
@@ -11502,15 +11493,15 @@
         <v>845</v>
       </c>
       <c r="B289" t="s">
-        <v>846</v>
+        <v>281</v>
       </c>
       <c r="C289" t="s">
-        <v>847</v>
+        <v>282</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B290" t="s">
         <v>281</v>
@@ -11521,7 +11512,7 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B291" t="s">
         <v>281</v>
@@ -11532,7 +11523,7 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B292" t="s">
         <v>281</v>
@@ -11543,13 +11534,13 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
+        <v>849</v>
+      </c>
+      <c r="B293" t="s">
+        <v>850</v>
+      </c>
+      <c r="C293" t="s">
         <v>851</v>
-      </c>
-      <c r="B293" t="s">
-        <v>281</v>
-      </c>
-      <c r="C293" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
@@ -11568,21 +11559,21 @@
         <v>855</v>
       </c>
       <c r="B295" t="s">
-        <v>856</v>
+        <v>281</v>
       </c>
       <c r="C295" t="s">
-        <v>857</v>
+        <v>282</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
+        <v>856</v>
+      </c>
+      <c r="B296" t="s">
+        <v>857</v>
+      </c>
+      <c r="C296" t="s">
         <v>858</v>
-      </c>
-      <c r="B296" t="s">
-        <v>281</v>
-      </c>
-      <c r="C296" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
@@ -11590,15 +11581,15 @@
         <v>859</v>
       </c>
       <c r="B297" t="s">
-        <v>860</v>
+        <v>281</v>
       </c>
       <c r="C297" t="s">
-        <v>861</v>
+        <v>282</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B298" t="s">
         <v>281</v>
@@ -11609,13 +11600,13 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
+        <v>861</v>
+      </c>
+      <c r="B299" t="s">
+        <v>862</v>
+      </c>
+      <c r="C299" t="s">
         <v>863</v>
-      </c>
-      <c r="B299" t="s">
-        <v>281</v>
-      </c>
-      <c r="C299" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
@@ -11678,21 +11669,21 @@
         <v>879</v>
       </c>
       <c r="B305" t="s">
-        <v>880</v>
+        <v>281</v>
       </c>
       <c r="C305" t="s">
-        <v>881</v>
+        <v>282</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
+        <v>880</v>
+      </c>
+      <c r="B306" t="s">
+        <v>881</v>
+      </c>
+      <c r="C306" t="s">
         <v>882</v>
-      </c>
-      <c r="B306" t="s">
-        <v>281</v>
-      </c>
-      <c r="C306" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
@@ -11700,15 +11691,15 @@
         <v>883</v>
       </c>
       <c r="B307" t="s">
-        <v>884</v>
+        <v>281</v>
       </c>
       <c r="C307" t="s">
-        <v>885</v>
+        <v>282</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B308" t="s">
         <v>281</v>
@@ -11719,7 +11710,7 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B309" t="s">
         <v>281</v>
@@ -11730,7 +11721,7 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B310" t="s">
         <v>281</v>
@@ -11741,7 +11732,7 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B311" t="s">
         <v>281</v>
@@ -11752,7 +11743,7 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B312" t="s">
         <v>281</v>
@@ -11763,7 +11754,7 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B313" t="s">
         <v>281</v>
@@ -11774,7 +11765,7 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B314" t="s">
         <v>281</v>
@@ -11785,7 +11776,7 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B315" t="s">
         <v>281</v>
@@ -11796,7 +11787,7 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B316" t="s">
         <v>281</v>
@@ -11807,7 +11798,7 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B317" t="s">
         <v>281</v>
@@ -11818,7 +11809,7 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B318" t="s">
         <v>281</v>
@@ -11829,7 +11820,7 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B319" t="s">
         <v>281</v>
@@ -11840,7 +11831,7 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B320" t="s">
         <v>281</v>
@@ -11851,7 +11842,7 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="B321" t="s">
         <v>281</v>
@@ -11862,7 +11853,7 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B322" t="s">
         <v>281</v>
@@ -11873,7 +11864,7 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="B323" t="s">
         <v>281</v>
@@ -11884,7 +11875,7 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B324" t="s">
         <v>281</v>
@@ -11895,7 +11886,7 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B325" t="s">
         <v>281</v>
@@ -11906,7 +11897,7 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B326" t="s">
         <v>281</v>
@@ -11917,7 +11908,7 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B327" t="s">
         <v>281</v>
@@ -11928,7 +11919,7 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B328" t="s">
         <v>281</v>
@@ -11939,13 +11930,13 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
+        <v>905</v>
+      </c>
+      <c r="B329" t="s">
+        <v>906</v>
+      </c>
+      <c r="C329" t="s">
         <v>907</v>
-      </c>
-      <c r="B329" t="s">
-        <v>281</v>
-      </c>
-      <c r="C329" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
@@ -11953,15 +11944,15 @@
         <v>908</v>
       </c>
       <c r="B330" t="s">
-        <v>909</v>
+        <v>281</v>
       </c>
       <c r="C330" t="s">
-        <v>910</v>
+        <v>282</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="B331" t="s">
         <v>281</v>
@@ -11972,7 +11963,7 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="B332" t="s">
         <v>281</v>
@@ -11983,7 +11974,7 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="B333" t="s">
         <v>281</v>
@@ -11994,7 +11985,7 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="B334" t="s">
         <v>281</v>
@@ -12005,13 +11996,13 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
+        <v>913</v>
+      </c>
+      <c r="B335" t="s">
+        <v>914</v>
+      </c>
+      <c r="C335" t="s">
         <v>915</v>
-      </c>
-      <c r="B335" t="s">
-        <v>281</v>
-      </c>
-      <c r="C335" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
@@ -12019,15 +12010,15 @@
         <v>916</v>
       </c>
       <c r="B336" t="s">
-        <v>917</v>
+        <v>281</v>
       </c>
       <c r="C336" t="s">
-        <v>918</v>
+        <v>282</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B337" t="s">
         <v>281</v>
@@ -12038,13 +12029,13 @@
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
+        <v>918</v>
+      </c>
+      <c r="B338" t="s">
+        <v>919</v>
+      </c>
+      <c r="C338" t="s">
         <v>920</v>
-      </c>
-      <c r="B338" t="s">
-        <v>281</v>
-      </c>
-      <c r="C338" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
@@ -12077,18 +12068,18 @@
         <v>928</v>
       </c>
       <c r="C341" t="s">
-        <v>929</v>
+        <v>282</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
+        <v>929</v>
+      </c>
+      <c r="B342" t="s">
         <v>930</v>
       </c>
-      <c r="B342" t="s">
+      <c r="C342" t="s">
         <v>931</v>
-      </c>
-      <c r="C342" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
@@ -12308,18 +12299,18 @@
         <v>990</v>
       </c>
       <c r="C362" t="s">
-        <v>991</v>
+        <v>282</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
+        <v>991</v>
+      </c>
+      <c r="B363" t="s">
         <v>992</v>
       </c>
-      <c r="B363" t="s">
+      <c r="C363" t="s">
         <v>993</v>
-      </c>
-      <c r="C363" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
@@ -12327,21 +12318,21 @@
         <v>994</v>
       </c>
       <c r="B364" t="s">
-        <v>995</v>
+        <v>38</v>
       </c>
       <c r="C364" t="s">
-        <v>996</v>
+        <v>39</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
+        <v>995</v>
+      </c>
+      <c r="B365" t="s">
+        <v>996</v>
+      </c>
+      <c r="C365" t="s">
         <v>997</v>
-      </c>
-      <c r="B365" t="s">
-        <v>38</v>
-      </c>
-      <c r="C365" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
@@ -12349,21 +12340,21 @@
         <v>998</v>
       </c>
       <c r="B366" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="C366" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
+        <v>999</v>
+      </c>
+      <c r="B367" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C367" t="s">
         <v>1001</v>
-      </c>
-      <c r="B367" t="s">
-        <v>999</v>
-      </c>
-      <c r="C367" t="s">
-        <v>1000</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
@@ -12657,29 +12648,29 @@
         <v>1080</v>
       </c>
       <c r="B394" t="s">
-        <v>1081</v>
+        <v>990</v>
       </c>
       <c r="C394" t="s">
-        <v>1082</v>
+        <v>282</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="B395" t="s">
-        <v>993</v>
+        <v>203</v>
       </c>
       <c r="C395" t="s">
-        <v>282</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B396" t="s">
         <v>1084</v>
-      </c>
-      <c r="B396" t="s">
-        <v>203</v>
       </c>
       <c r="C396" t="s">
         <v>1085</v>
@@ -12899,18 +12890,18 @@
         <v>1143</v>
       </c>
       <c r="B416" t="s">
+        <v>634</v>
+      </c>
+      <c r="C416" t="s">
         <v>1144</v>
-      </c>
-      <c r="C416" t="s">
-        <v>1145</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B417" t="s">
         <v>1146</v>
-      </c>
-      <c r="B417" t="s">
-        <v>637</v>
       </c>
       <c r="C417" t="s">
         <v>1147</v>
@@ -12997,7 +12988,7 @@
       <c r="A425" t="s">
         <v>1169</v>
       </c>
-      <c r="B425" t="s">
+      <c r="B425" s="1" t="s">
         <v>1170</v>
       </c>
       <c r="C425" t="s">
@@ -13008,7 +12999,7 @@
       <c r="A426" t="s">
         <v>1172</v>
       </c>
-      <c r="B426" s="1" t="s">
+      <c r="B426" t="s">
         <v>1173</v>
       </c>
       <c r="C426" t="s">
@@ -13129,7 +13120,7 @@
       <c r="A437" t="s">
         <v>1205</v>
       </c>
-      <c r="B437" t="s">
+      <c r="B437" s="1" t="s">
         <v>1206</v>
       </c>
       <c r="C437" t="s">
@@ -13140,7 +13131,7 @@
       <c r="A438" t="s">
         <v>1208</v>
       </c>
-      <c r="B438" s="1" t="s">
+      <c r="B438" t="s">
         <v>1209</v>
       </c>
       <c r="C438" t="s">
@@ -13217,7 +13208,7 @@
       <c r="A445" t="s">
         <v>1229</v>
       </c>
-      <c r="B445" t="s">
+      <c r="B445" s="1" t="s">
         <v>1230</v>
       </c>
       <c r="C445" t="s">
@@ -13228,7 +13219,7 @@
       <c r="A446" t="s">
         <v>1232</v>
       </c>
-      <c r="B446" s="1" t="s">
+      <c r="B446" t="s">
         <v>1233</v>
       </c>
       <c r="C446" t="s">
@@ -13437,7 +13428,7 @@
       <c r="A465" t="s">
         <v>1289</v>
       </c>
-      <c r="B465" t="s">
+      <c r="B465" s="1" t="s">
         <v>1290</v>
       </c>
       <c r="C465" t="s">
@@ -13448,7 +13439,7 @@
       <c r="A466" t="s">
         <v>1292</v>
       </c>
-      <c r="B466" s="1" t="s">
+      <c r="B466" t="s">
         <v>1293</v>
       </c>
       <c r="C466" t="s">
@@ -13580,7 +13571,7 @@
       <c r="A478" t="s">
         <v>1328</v>
       </c>
-      <c r="B478" t="s">
+      <c r="B478" s="1" t="s">
         <v>1329</v>
       </c>
       <c r="C478" t="s">
@@ -13591,7 +13582,7 @@
       <c r="A479" t="s">
         <v>1331</v>
       </c>
-      <c r="B479" s="1" t="s">
+      <c r="B479" t="s">
         <v>1332</v>
       </c>
       <c r="C479" t="s">
@@ -13622,13 +13613,13 @@
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="B482" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="C482" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.25">
@@ -13658,21 +13649,21 @@
         <v>1350</v>
       </c>
       <c r="B485" t="s">
-        <v>1351</v>
+        <v>990</v>
       </c>
       <c r="C485" t="s">
-        <v>1352</v>
+        <v>282</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B486" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C486" t="s">
         <v>1353</v>
-      </c>
-      <c r="B486" t="s">
-        <v>993</v>
-      </c>
-      <c r="C486" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.25">
@@ -14255,18 +14246,18 @@
         <v>1511</v>
       </c>
       <c r="C539" t="s">
-        <v>1512</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B540" t="s">
         <v>1513</v>
       </c>
-      <c r="B540" t="s">
+      <c r="C540" t="s">
         <v>1514</v>
-      </c>
-      <c r="C540" t="s">
-        <v>1312</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.25">
@@ -14274,18 +14265,18 @@
         <v>1515</v>
       </c>
       <c r="B541" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C541" t="s">
         <v>1516</v>
-      </c>
-      <c r="C541" t="s">
-        <v>1517</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B542" t="s">
         <v>1518</v>
-      </c>
-      <c r="B542" t="s">
-        <v>1502</v>
       </c>
       <c r="C542" t="s">
         <v>1519</v>
@@ -14725,18 +14716,18 @@
         <v>1637</v>
       </c>
       <c r="B582" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C582" t="s">
         <v>1638</v>
-      </c>
-      <c r="C582" t="s">
-        <v>1639</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
+        <v>1639</v>
+      </c>
+      <c r="B583" t="s">
         <v>1640</v>
-      </c>
-      <c r="B583" t="s">
-        <v>1502</v>
       </c>
       <c r="C583" t="s">
         <v>1641</v>
@@ -15201,18 +15192,18 @@
         <v>1766</v>
       </c>
       <c r="C625" t="s">
-        <v>1767</v>
+        <v>614</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
+        <v>1767</v>
+      </c>
+      <c r="B626" t="s">
         <v>1768</v>
       </c>
-      <c r="B626" t="s">
+      <c r="C626" t="s">
         <v>1769</v>
-      </c>
-      <c r="C626" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.25">
@@ -15619,18 +15610,18 @@
         <v>1879</v>
       </c>
       <c r="C663" t="s">
-        <v>1880</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
+        <v>1880</v>
+      </c>
+      <c r="B664" t="s">
         <v>1881</v>
       </c>
-      <c r="B664" t="s">
+      <c r="C664" t="s">
         <v>1882</v>
-      </c>
-      <c r="C664" t="s">
-        <v>1195</v>
       </c>
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.25">
@@ -15839,18 +15830,18 @@
         <v>1938</v>
       </c>
       <c r="C683" t="s">
-        <v>1939</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
+        <v>1939</v>
+      </c>
+      <c r="B684" t="s">
         <v>1940</v>
       </c>
-      <c r="B684" t="s">
+      <c r="C684" t="s">
         <v>1941</v>
-      </c>
-      <c r="C684" t="s">
-        <v>1395</v>
       </c>
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.25">
@@ -16631,18 +16622,18 @@
         <v>2153</v>
       </c>
       <c r="C755" t="s">
-        <v>2154</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="756" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
+        <v>2154</v>
+      </c>
+      <c r="B756" t="s">
         <v>2155</v>
       </c>
-      <c r="B756" t="s">
+      <c r="C756" t="s">
         <v>2156</v>
-      </c>
-      <c r="C756" t="s">
-        <v>1343</v>
       </c>
     </row>
     <row r="757" spans="1:3" x14ac:dyDescent="0.25">
@@ -16719,18 +16710,18 @@
         <v>2176</v>
       </c>
       <c r="C763" t="s">
-        <v>2177</v>
+        <v>294</v>
       </c>
     </row>
     <row r="764" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
+        <v>2177</v>
+      </c>
+      <c r="B764" t="s">
         <v>2178</v>
       </c>
-      <c r="B764" t="s">
+      <c r="C764" t="s">
         <v>2179</v>
-      </c>
-      <c r="C764" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="765" spans="1:3" x14ac:dyDescent="0.25">
@@ -16752,18 +16743,18 @@
         <v>2184</v>
       </c>
       <c r="C766" t="s">
-        <v>2185</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="767" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
+        <v>2185</v>
+      </c>
+      <c r="B767" t="s">
         <v>2186</v>
       </c>
-      <c r="B767" t="s">
+      <c r="C767" t="s">
         <v>2187</v>
-      </c>
-      <c r="C767" t="s">
-        <v>1528</v>
       </c>
     </row>
     <row r="768" spans="1:3" x14ac:dyDescent="0.25">
@@ -16884,18 +16875,18 @@
         <v>2219</v>
       </c>
       <c r="C778" t="s">
-        <v>2220</v>
+        <v>497</v>
       </c>
     </row>
     <row r="779" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
+        <v>2220</v>
+      </c>
+      <c r="B779" t="s">
         <v>2221</v>
       </c>
-      <c r="B779" t="s">
+      <c r="C779" t="s">
         <v>2222</v>
-      </c>
-      <c r="C779" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="780" spans="1:3" x14ac:dyDescent="0.25">
@@ -17775,18 +17766,18 @@
         <v>2461</v>
       </c>
       <c r="C859" t="s">
-        <v>2462</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="860" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A860" t="s">
+        <v>2462</v>
+      </c>
+      <c r="B860" t="s">
         <v>2463</v>
       </c>
-      <c r="B860" t="s">
+      <c r="C860" t="s">
         <v>2464</v>
-      </c>
-      <c r="C860" t="s">
-        <v>2447</v>
       </c>
     </row>
     <row r="861" spans="1:3" x14ac:dyDescent="0.25">
@@ -18370,17 +18361,6 @@
       </c>
       <c r="C913" t="s">
         <v>2623</v>
-      </c>
-    </row>
-    <row r="914" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A914" t="s">
-        <v>2624</v>
-      </c>
-      <c r="B914" t="s">
-        <v>2625</v>
-      </c>
-      <c r="C914" t="s">
-        <v>2626</v>
       </c>
     </row>
   </sheetData>
